--- a/Översikt MORA.xlsx
+++ b/Översikt MORA.xlsx
@@ -575,7 +575,7 @@
         <v>45737</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         <v>45855</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>45118</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -953,7 +953,7 @@
         <v>45763</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1078,7 +1078,7 @@
         <v>45826</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1198,7 +1198,7 @@
         <v>45944.29658564815</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         <v>45932.43633101852</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         <v>45666</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1533,7 +1533,7 @@
         <v>45982.44465277778</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>45919</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1751,7 +1751,7 @@
         <v>45967.57792824074</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1856,7 +1856,7 @@
         <v>45911</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>45853</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2071,7 +2071,7 @@
         <v>45749</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2175,7 +2175,7 @@
         <v>45775</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2279,7 +2279,7 @@
         <v>45855</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2387,7 +2387,7 @@
         <v>45590</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
         <v>45625</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
         <v>45792</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         <v>45855</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>45916.39680555555</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
         <v>45217.60914351852</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>45833</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3102,7 +3102,7 @@
         <v>44958.60337962963</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>45848</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
         <v>45533.45853009259</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3400,7 +3400,7 @@
         <v>45978.62241898148</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>45826</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3592,7 +3592,7 @@
         <v>45895.42209490741</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3689,7 +3689,7 @@
         <v>45981.41530092592</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3782,7 +3782,7 @@
         <v>45653.49774305556</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         <v>45902.60008101852</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3976,7 +3976,7 @@
         <v>45061.58952546296</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4074,7 +4074,7 @@
         <v>45855</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4176,7 +4176,7 @@
         <v>45642</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>45890.35232638889</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4372,7 +4372,7 @@
         <v>45925.6530324074</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4468,7 +4468,7 @@
         <v>45832</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4564,7 +4564,7 @@
         <v>45841.40309027778</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4660,7 +4660,7 @@
         <v>45825.3303125</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4755,7 +4755,7 @@
         <v>45824.59025462963</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4850,7 +4850,7 @@
         <v>45264</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4950,7 +4950,7 @@
         <v>45987.36070601852</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>45848</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>45982.72690972222</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5243,7 +5243,7 @@
         <v>46006.48664351852</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
         <v>45525</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>45712.57467592593</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5521,7 +5521,7 @@
         <v>45959.6131712963</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         <v>44343</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5711,7 +5711,7 @@
         <v>45833</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5808,7 +5808,7 @@
         <v>45985.64645833334</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5901,7 +5901,7 @@
         <v>45855</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>45890.3469212963</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>45890.35881944445</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6179,7 +6179,7 @@
         <v>45835.59140046296</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>45743.36951388889</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6363,7 +6363,7 @@
         <v>45848</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         <v>46002.64605324074</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6551,7 +6551,7 @@
         <v>45393.63902777778</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         <v>45418.39261574074</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>45890.35545138889</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6822,7 +6822,7 @@
         <v>45824.60537037037</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6909,7 +6909,7 @@
         <v>45939.67418981482</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -7000,7 +7000,7 @@
         <v>46008.34148148148</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -7091,7 +7091,7 @@
         <v>45791.41832175926</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>45177.49715277777</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7277,7 +7277,7 @@
         <v>45159.32799768518</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         <v>45852.45686342593</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7449,7 +7449,7 @@
         <v>45406.41648148148</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7539,7 +7539,7 @@
         <v>44959.55116898148</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7629,7 +7629,7 @@
         <v>45471</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7714,7 +7714,7 @@
         <v>45665.58001157407</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7799,7 +7799,7 @@
         <v>44529</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7888,7 +7888,7 @@
         <v>44897</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7973,7 +7973,7 @@
         <v>45077</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -8058,7 +8058,7 @@
         <v>46006.38961805555</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8143,7 +8143,7 @@
         <v>45576</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -8228,7 +8228,7 @@
         <v>44364</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8322,7 +8322,7 @@
         <v>45007</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8411,7 +8411,7 @@
         <v>45775.62283564815</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8496,7 +8496,7 @@
         <v>44410</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>44553</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>44427</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>44517.934375</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>44546.5862037037</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8781,7 +8781,7 @@
         <v>44796</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>44813</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8900,7 +8900,7 @@
         <v>44515</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>44832.31839120371</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>44362.38358796296</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9071,7 +9071,7 @@
         <v>44470.63695601852</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
         <v>44838</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         <v>44459.68884259259</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9247,7 +9247,7 @@
         <v>44601</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9304,7 +9304,7 @@
         <v>44705</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9361,7 +9361,7 @@
         <v>44545</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9423,7 +9423,7 @@
         <v>44421</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9480,7 +9480,7 @@
         <v>44455</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9537,7 +9537,7 @@
         <v>44295</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9594,7 +9594,7 @@
         <v>44421</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9651,7 +9651,7 @@
         <v>44516.42728009259</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>44417.43135416666</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9765,7 +9765,7 @@
         <v>44747</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9827,7 +9827,7 @@
         <v>44432</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>44301</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>44365.59125</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9998,7 +9998,7 @@
         <v>44365.58731481482</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10055,7 +10055,7 @@
         <v>44365</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10112,7 +10112,7 @@
         <v>44848</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10169,7 +10169,7 @@
         <v>44844.47778935185</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10231,7 +10231,7 @@
         <v>44369.7362037037</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10288,7 +10288,7 @@
         <v>44243</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10345,7 +10345,7 @@
         <v>44673</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10402,7 +10402,7 @@
         <v>44425</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         <v>44455</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10516,7 +10516,7 @@
         <v>44788.32601851852</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10573,7 +10573,7 @@
         <v>44845.35591435185</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10630,7 +10630,7 @@
         <v>44489</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10692,7 +10692,7 @@
         <v>44523.35982638889</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10749,7 +10749,7 @@
         <v>44423.65152777778</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10811,7 +10811,7 @@
         <v>44609.62314814814</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10868,7 +10868,7 @@
         <v>44421</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10925,7 +10925,7 @@
         <v>44578.66320601852</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10982,7 +10982,7 @@
         <v>44389.62159722222</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11039,7 +11039,7 @@
         <v>44658</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11096,7 +11096,7 @@
         <v>44546.60960648148</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11153,7 +11153,7 @@
         <v>44530</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11210,7 +11210,7 @@
         <v>44466</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11267,7 +11267,7 @@
         <v>44742.58386574074</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11329,7 +11329,7 @@
         <v>44517.92888888889</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11386,7 +11386,7 @@
         <v>44488</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11448,7 +11448,7 @@
         <v>44480.57549768518</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11505,7 +11505,7 @@
         <v>44749.56221064815</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11567,7 +11567,7 @@
         <v>44782</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11629,7 +11629,7 @@
         <v>44589.65528935185</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11686,7 +11686,7 @@
         <v>44301</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11743,7 +11743,7 @@
         <v>44543</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11800,7 +11800,7 @@
         <v>44680.4265162037</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11857,7 +11857,7 @@
         <v>44489.94246527777</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11914,7 +11914,7 @@
         <v>44796.60181712963</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         <v>44858.66387731482</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -12028,7 +12028,7 @@
         <v>44810.63806712963</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -12085,7 +12085,7 @@
         <v>44522</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12142,7 +12142,7 @@
         <v>44613</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12199,7 +12199,7 @@
         <v>44656.37616898148</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12256,7 +12256,7 @@
         <v>44326</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12313,7 +12313,7 @@
         <v>44726</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12370,7 +12370,7 @@
         <v>45530</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12427,7 +12427,7 @@
         <v>45775.74009259259</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12484,7 +12484,7 @@
         <v>45637.34074074074</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12546,7 +12546,7 @@
         <v>45351.41524305556</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12603,7 +12603,7 @@
         <v>45351.46583333334</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12660,7 +12660,7 @@
         <v>45692.68561342593</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12717,7 +12717,7 @@
         <v>45533</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12774,7 +12774,7 @@
         <v>45756.37520833333</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>44874</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12898,7 +12898,7 @@
         <v>45590.60216435185</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12955,7 +12955,7 @@
         <v>44630.62788194444</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -13012,7 +13012,7 @@
         <v>45572.38476851852</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -13069,7 +13069,7 @@
         <v>45642.55645833333</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13126,7 +13126,7 @@
         <v>45747.48371527778</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13183,7 +13183,7 @@
         <v>45264.65987268519</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13240,7 +13240,7 @@
         <v>45167</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13297,7 +13297,7 @@
         <v>45743</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13354,7 +13354,7 @@
         <v>45510.40587962963</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13411,7 +13411,7 @@
         <v>45568.64337962963</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13468,7 +13468,7 @@
         <v>45730.59239583334</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13530,7 +13530,7 @@
         <v>45576</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13587,7 +13587,7 @@
         <v>45622.65269675926</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13644,7 +13644,7 @@
         <v>45763.63166666667</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13701,7 +13701,7 @@
         <v>45544</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13758,7 +13758,7 @@
         <v>44768</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13815,7 +13815,7 @@
         <v>44852</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13872,7 +13872,7 @@
         <v>44531</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13929,7 +13929,7 @@
         <v>45757.52033564815</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         <v>45602.7022337963</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -14043,7 +14043,7 @@
         <v>44896</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14100,7 +14100,7 @@
         <v>45401.4194212963</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14157,7 +14157,7 @@
         <v>45531.34050925926</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14214,7 +14214,7 @@
         <v>44435</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14271,7 +14271,7 @@
         <v>44796</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14328,7 +14328,7 @@
         <v>44810.64164351852</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14390,7 +14390,7 @@
         <v>44859.52145833334</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14447,7 +14447,7 @@
         <v>45695.42762731481</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14504,7 +14504,7 @@
         <v>45280</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14561,7 +14561,7 @@
         <v>45184.53412037037</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14623,7 +14623,7 @@
         <v>45412</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14680,7 +14680,7 @@
         <v>45798.62243055556</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14742,7 +14742,7 @@
         <v>45512.70077546296</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14804,7 +14804,7 @@
         <v>45691.35427083333</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14861,7 +14861,7 @@
         <v>45749.58428240741</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14918,7 +14918,7 @@
         <v>45219</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14975,7 +14975,7 @@
         <v>44482</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -15032,7 +15032,7 @@
         <v>44995</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -15089,7 +15089,7 @@
         <v>45799.56524305556</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15146,7 +15146,7 @@
         <v>45798.6003587963</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15208,7 +15208,7 @@
         <v>45799.57666666667</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15265,7 +15265,7 @@
         <v>45798.62894675926</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15327,7 +15327,7 @@
         <v>45240</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15384,7 +15384,7 @@
         <v>45260.46609953704</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15441,7 +15441,7 @@
         <v>44959.54355324074</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15503,7 +15503,7 @@
         <v>44898</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15560,7 +15560,7 @@
         <v>45264</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15622,7 +15622,7 @@
         <v>44473.39252314815</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15679,7 +15679,7 @@
         <v>45090.68675925926</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15736,7 +15736,7 @@
         <v>45450</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15798,7 +15798,7 @@
         <v>45603.58619212963</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15855,7 +15855,7 @@
         <v>45253</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15912,7 +15912,7 @@
         <v>45153</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15969,7 +15969,7 @@
         <v>45530.71158564815</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -16026,7 +16026,7 @@
         <v>44518.39234953704</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16083,7 +16083,7 @@
         <v>45194.59378472222</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16140,7 +16140,7 @@
         <v>45222</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16197,7 +16197,7 @@
         <v>45254</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16254,7 +16254,7 @@
         <v>45807</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16311,7 +16311,7 @@
         <v>45497</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16368,7 +16368,7 @@
         <v>45260.46438657407</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16425,7 +16425,7 @@
         <v>45810.50702546296</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16482,7 +16482,7 @@
         <v>45439.45527777778</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16539,7 +16539,7 @@
         <v>45625.38677083333</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16596,7 +16596,7 @@
         <v>45810.46144675926</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16653,7 +16653,7 @@
         <v>45705.59269675926</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16710,7 +16710,7 @@
         <v>45810.67462962963</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16767,7 +16767,7 @@
         <v>45810.38439814815</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16824,7 +16824,7 @@
         <v>44337</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16881,7 +16881,7 @@
         <v>45645.74694444444</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16938,7 +16938,7 @@
         <v>45809</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16995,7 +16995,7 @@
         <v>45812.37965277778</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -17052,7 +17052,7 @@
         <v>45889.76200231481</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17114,7 +17114,7 @@
         <v>45756</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17171,7 +17171,7 @@
         <v>45891</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17228,7 +17228,7 @@
         <v>45439.51907407407</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17290,7 +17290,7 @@
         <v>44831.81482638889</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17347,7 +17347,7 @@
         <v>45813.59405092592</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17404,7 +17404,7 @@
         <v>45891</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17461,7 +17461,7 @@
         <v>45812.36133101852</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17518,7 +17518,7 @@
         <v>45812.3533912037</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17580,7 +17580,7 @@
         <v>45742.38511574074</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17642,7 +17642,7 @@
         <v>45812.35072916667</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17704,7 +17704,7 @@
         <v>45895.67356481482</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17761,7 +17761,7 @@
         <v>45758.62951388889</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17818,7 +17818,7 @@
         <v>45132.6291550926</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17880,7 +17880,7 @@
         <v>45817.6325462963</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17942,7 +17942,7 @@
         <v>45645.62282407407</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17999,7 +17999,7 @@
         <v>45800</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -18056,7 +18056,7 @@
         <v>45159.59186342593</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18113,7 +18113,7 @@
         <v>45894.57016203704</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18170,7 +18170,7 @@
         <v>45894.57202546296</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18227,7 +18227,7 @@
         <v>45576</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18284,7 +18284,7 @@
         <v>45894.57918981482</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18341,7 +18341,7 @@
         <v>45541.61094907407</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18398,7 +18398,7 @@
         <v>45104</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18455,7 +18455,7 @@
         <v>45896.64631944444</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18517,7 +18517,7 @@
         <v>45897.46659722222</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18574,7 +18574,7 @@
         <v>45896.64715277778</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18631,7 +18631,7 @@
         <v>45019.71342592593</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18688,7 +18688,7 @@
         <v>45799</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18745,7 +18745,7 @@
         <v>45694.59288194445</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18802,7 +18802,7 @@
         <v>44956</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18859,7 +18859,7 @@
         <v>45898.5738425926</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18916,7 +18916,7 @@
         <v>45232.63217592592</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18973,7 +18973,7 @@
         <v>45898.55165509259</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19030,7 +19030,7 @@
         <v>44484</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19087,7 +19087,7 @@
         <v>45901.68267361111</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19149,7 +19149,7 @@
         <v>44581</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19206,7 +19206,7 @@
         <v>45798.59290509259</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19268,7 +19268,7 @@
         <v>45798.63875</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19330,7 +19330,7 @@
         <v>45821.50900462963</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         <v>45902.58721064815</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19444,7 +19444,7 @@
         <v>45821.34855324074</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         <v>45820.67107638889</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19563,7 +19563,7 @@
         <v>45820.67221064815</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19620,7 +19620,7 @@
         <v>45757.34350694445</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19677,7 +19677,7 @@
         <v>45820.66846064815</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19734,7 +19734,7 @@
         <v>45820.40034722222</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19796,7 +19796,7 @@
         <v>45090.62493055555</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19853,7 +19853,7 @@
         <v>45902.93693287037</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19910,7 +19910,7 @@
         <v>45903</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19967,7 +19967,7 @@
         <v>45279.46009259259</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -20024,7 +20024,7 @@
         <v>45904.32134259259</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20081,7 +20081,7 @@
         <v>45433.5741087963</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20138,7 +20138,7 @@
         <v>45453.43695601852</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20195,7 +20195,7 @@
         <v>45908.56168981481</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20252,7 +20252,7 @@
         <v>45909.34799768519</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20314,7 +20314,7 @@
         <v>45909.36631944445</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20371,7 +20371,7 @@
         <v>44313.54942129629</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20428,7 +20428,7 @@
         <v>45825.34322916667</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20485,7 +20485,7 @@
         <v>44617.48909722222</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20542,7 +20542,7 @@
         <v>45909.3578125</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20599,7 +20599,7 @@
         <v>45147.33251157407</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20656,7 +20656,7 @@
         <v>45908.57753472222</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20713,7 +20713,7 @@
         <v>45824.65862268519</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20770,7 +20770,7 @@
         <v>45910.34953703704</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         <v>45911.63363425926</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20884,7 +20884,7 @@
         <v>45824.64524305556</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20941,7 +20941,7 @@
         <v>45910.34449074074</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20998,7 +20998,7 @@
         <v>45260.52684027778</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21055,7 +21055,7 @@
         <v>45232.64195601852</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21112,7 +21112,7 @@
         <v>45911.48967592593</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21169,7 +21169,7 @@
         <v>45826.6575</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21226,7 +21226,7 @@
         <v>45463</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21283,7 +21283,7 @@
         <v>45912.58710648148</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21340,7 +21340,7 @@
         <v>44903.6605324074</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21397,7 +21397,7 @@
         <v>45916.48513888889</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>45827.33116898148</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>45826.35716435185</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>45826</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21630,7 +21630,7 @@
         <v>45226.49950231481</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21687,7 +21687,7 @@
         <v>45420</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21744,7 +21744,7 @@
         <v>45917.466875</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21801,7 +21801,7 @@
         <v>45919.53329861111</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21858,7 +21858,7 @@
         <v>45831.24760416667</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21915,7 +21915,7 @@
         <v>45259.57872685185</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21972,7 +21972,7 @@
         <v>45831.25519675926</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -22029,7 +22029,7 @@
         <v>45646.74988425926</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22086,7 +22086,7 @@
         <v>45259.50996527778</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22143,7 +22143,7 @@
         <v>44942.57987268519</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22200,7 +22200,7 @@
         <v>45919.54811342592</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22257,7 +22257,7 @@
         <v>45832.48185185185</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22319,7 +22319,7 @@
         <v>45611.63849537037</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22376,7 +22376,7 @@
         <v>44755.59188657408</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22433,7 +22433,7 @@
         <v>45096</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22490,7 +22490,7 @@
         <v>45624.65785879629</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22547,7 +22547,7 @@
         <v>45013</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22604,7 +22604,7 @@
         <v>45831.92416666666</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22661,7 +22661,7 @@
         <v>45831.93105324074</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22718,7 +22718,7 @@
         <v>45629</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22780,7 +22780,7 @@
         <v>45924.5253125</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22837,7 +22837,7 @@
         <v>45924.52871527777</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22894,7 +22894,7 @@
         <v>45667.46648148148</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22951,7 +22951,7 @@
         <v>45925</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23008,7 +23008,7 @@
         <v>45715.59936342593</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23065,7 +23065,7 @@
         <v>45926.3312962963</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23122,7 +23122,7 @@
         <v>45299</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23179,7 +23179,7 @@
         <v>45775.63459490741</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23236,7 +23236,7 @@
         <v>45834.60209490741</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23293,7 +23293,7 @@
         <v>45834.60525462963</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23350,7 +23350,7 @@
         <v>45730.57429398148</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23412,7 +23412,7 @@
         <v>45926.34195601852</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23469,7 +23469,7 @@
         <v>45615.47137731482</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23526,7 +23526,7 @@
         <v>45929</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23583,7 +23583,7 @@
         <v>45929.61931712963</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23640,7 +23640,7 @@
         <v>45929.6365162037</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23697,7 +23697,7 @@
         <v>45834.59822916667</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23754,7 +23754,7 @@
         <v>45764.35269675926</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23811,7 +23811,7 @@
         <v>45930.61896990741</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23868,7 +23868,7 @@
         <v>45931.69100694444</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23925,7 +23925,7 @@
         <v>45931.70715277778</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23982,7 +23982,7 @@
         <v>45617.83969907407</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24039,7 +24039,7 @@
         <v>45933.71648148148</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24096,7 +24096,7 @@
         <v>45932.42298611111</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24153,7 +24153,7 @@
         <v>45839.57559027777</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24210,7 +24210,7 @@
         <v>44907</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24267,7 +24267,7 @@
         <v>45933.71896990741</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24324,7 +24324,7 @@
         <v>45245.64877314815</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24381,7 +24381,7 @@
         <v>45184</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24443,7 +24443,7 @@
         <v>44781.5350925926</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24500,7 +24500,7 @@
         <v>45531.38372685185</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24557,7 +24557,7 @@
         <v>45387.5900925926</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24614,7 +24614,7 @@
         <v>45931</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24671,7 +24671,7 @@
         <v>45931</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24728,7 +24728,7 @@
         <v>45937.50666666667</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24785,7 +24785,7 @@
         <v>45937.51315972222</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24842,7 +24842,7 @@
         <v>45938.67662037037</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24904,7 +24904,7 @@
         <v>45841</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24961,7 +24961,7 @@
         <v>45938.66932870371</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25023,7 +25023,7 @@
         <v>45056</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25080,7 +25080,7 @@
         <v>45939.49045138889</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25137,7 +25137,7 @@
         <v>45477.75744212963</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25194,7 +25194,7 @@
         <v>45077</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25251,7 +25251,7 @@
         <v>45940.44993055556</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25308,7 +25308,7 @@
         <v>45252</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25365,7 +25365,7 @@
         <v>45845.60520833333</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25422,7 +25422,7 @@
         <v>45844.58890046296</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25479,7 +25479,7 @@
         <v>45931</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25536,7 +25536,7 @@
         <v>45847.38469907407</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25593,7 +25593,7 @@
         <v>44847.518125</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25650,7 +25650,7 @@
         <v>45846</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25707,7 +25707,7 @@
         <v>45849.57297453703</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25769,7 +25769,7 @@
         <v>44830</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25826,7 +25826,7 @@
         <v>45951.64653935185</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25883,7 +25883,7 @@
         <v>45852.60936342592</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25945,7 +25945,7 @@
         <v>45855.35989583333</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26002,7 +26002,7 @@
         <v>45358.63265046296</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26059,7 +26059,7 @@
         <v>45404.67387731482</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26116,7 +26116,7 @@
         <v>45859.35384259259</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26173,7 +26173,7 @@
         <v>45860.471875</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26230,7 +26230,7 @@
         <v>45859</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26292,7 +26292,7 @@
         <v>44900.65716435185</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26349,7 +26349,7 @@
         <v>45859</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26411,7 +26411,7 @@
         <v>45859</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26473,7 +26473,7 @@
         <v>45427.61516203704</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26530,7 +26530,7 @@
         <v>45952.69306712963</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26587,7 +26587,7 @@
         <v>44911</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26644,7 +26644,7 @@
         <v>45866.34385416667</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26701,7 +26701,7 @@
         <v>45750</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26758,7 +26758,7 @@
         <v>45957.44552083333</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26815,7 +26815,7 @@
         <v>45869</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26872,7 +26872,7 @@
         <v>45873.57319444444</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26929,7 +26929,7 @@
         <v>44893</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26986,7 +26986,7 @@
         <v>45296</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27043,7 +27043,7 @@
         <v>45505.47716435185</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27105,7 +27105,7 @@
         <v>45958.48611111111</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27167,7 +27167,7 @@
         <v>45958.48280092593</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27229,7 +27229,7 @@
         <v>44497</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27286,7 +27286,7 @@
         <v>45401.40806712963</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27343,7 +27343,7 @@
         <v>45502.48047453703</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27400,7 +27400,7 @@
         <v>45187.62532407408</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27462,7 +27462,7 @@
         <v>44909.52385416667</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27519,7 +27519,7 @@
         <v>45874.38655092593</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27576,7 +27576,7 @@
         <v>44644.70184027778</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27633,7 +27633,7 @@
         <v>45072</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27690,7 +27690,7 @@
         <v>45244</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27747,7 +27747,7 @@
         <v>44865</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27804,7 +27804,7 @@
         <v>45875.39822916667</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27861,7 +27861,7 @@
         <v>45876.46681712963</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27918,7 +27918,7 @@
         <v>45401.53798611111</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27975,7 +27975,7 @@
         <v>45748.39222222222</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28032,7 +28032,7 @@
         <v>45961.57019675926</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28089,7 +28089,7 @@
         <v>45960.40711805555</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28146,7 +28146,7 @@
         <v>45960.49972222222</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28203,7 +28203,7 @@
         <v>45198.61314814815</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28260,7 +28260,7 @@
         <v>45960.39960648148</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28317,7 +28317,7 @@
         <v>45960.40662037037</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28374,7 +28374,7 @@
         <v>45960.43893518519</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28431,7 +28431,7 @@
         <v>45959</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28488,7 +28488,7 @@
         <v>45761.59221064814</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28550,7 +28550,7 @@
         <v>45960.3921875</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28607,7 +28607,7 @@
         <v>45965.61844907407</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28664,7 +28664,7 @@
         <v>45190.51887731482</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28721,7 +28721,7 @@
         <v>45965.62608796296</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28778,7 +28778,7 @@
         <v>45964.41665509259</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28835,7 +28835,7 @@
         <v>45965.4031712963</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28892,7 +28892,7 @@
         <v>45965.61686342592</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28949,7 +28949,7 @@
         <v>45551.68347222222</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -29006,7 +29006,7 @@
         <v>45966.85649305556</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29068,7 +29068,7 @@
         <v>44897</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29125,7 +29125,7 @@
         <v>45966.76542824074</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29182,7 +29182,7 @@
         <v>45881.48791666667</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29239,7 +29239,7 @@
         <v>45882.47625</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29296,7 +29296,7 @@
         <v>45471</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29353,7 +29353,7 @@
         <v>45614.61569444444</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29410,7 +29410,7 @@
         <v>45967.374375</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29467,7 +29467,7 @@
         <v>45967.38884259259</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29529,7 +29529,7 @@
         <v>45967.3700462963</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -29586,7 +29586,7 @@
         <v>45967.37679398148</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29643,7 +29643,7 @@
         <v>45497</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29700,7 +29700,7 @@
         <v>44600</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29757,7 +29757,7 @@
         <v>45646.37872685185</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29814,7 +29814,7 @@
         <v>45968.40056712963</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29871,7 +29871,7 @@
         <v>45968.64847222222</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29928,7 +29928,7 @@
         <v>45968.8227662037</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29985,7 +29985,7 @@
         <v>45882</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -30042,7 +30042,7 @@
         <v>45968.40621527778</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -30099,7 +30099,7 @@
         <v>45772.49640046297</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -30156,7 +30156,7 @@
         <v>45474.37850694444</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30213,7 +30213,7 @@
         <v>45755.46106481482</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30275,7 +30275,7 @@
         <v>45551.44503472222</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30332,7 +30332,7 @@
         <v>45645.76561342592</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30389,7 +30389,7 @@
         <v>45460</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30446,7 +30446,7 @@
         <v>44725.50280092593</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30508,7 +30508,7 @@
         <v>44837</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -30565,7 +30565,7 @@
         <v>45615.48465277778</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30622,7 +30622,7 @@
         <v>45977.45586805556</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30679,7 +30679,7 @@
         <v>45979.43388888889</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30736,7 +30736,7 @@
         <v>45979.44006944444</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30793,7 +30793,7 @@
         <v>45722.47743055555</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30850,7 +30850,7 @@
         <v>45771.47938657407</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30907,7 +30907,7 @@
         <v>45188.51439814815</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30964,7 +30964,7 @@
         <v>45981.41228009259</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -31021,7 +31021,7 @@
         <v>45981.37621527778</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -31078,7 +31078,7 @@
         <v>45981.62792824074</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -31135,7 +31135,7 @@
         <v>45761.60189814815</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -31197,7 +31197,7 @@
         <v>45981.63909722222</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31254,7 +31254,7 @@
         <v>45980.5122337963</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31316,7 +31316,7 @@
         <v>45985.63859953704</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31373,7 +31373,7 @@
         <v>45982.43615740741</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31430,7 +31430,7 @@
         <v>45530.71334490741</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31487,7 +31487,7 @@
         <v>45982.39435185185</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31544,7 +31544,7 @@
         <v>45502.55185185185</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31601,7 +31601,7 @@
         <v>45296.60353009259</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31658,7 +31658,7 @@
         <v>45299</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31715,7 +31715,7 @@
         <v>44859</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31772,7 +31772,7 @@
         <v>45771.45686342593</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31829,7 +31829,7 @@
         <v>45259</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31886,7 +31886,7 @@
         <v>45229</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31943,7 +31943,7 @@
         <v>45001</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -32005,7 +32005,7 @@
         <v>45965.6534837963</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -32062,7 +32062,7 @@
         <v>45063</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -32119,7 +32119,7 @@
         <v>45968.42591435185</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -32176,7 +32176,7 @@
         <v>45320</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32253,7 +32253,7 @@
         <v>45188</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32310,7 +32310,7 @@
         <v>45572.60915509259</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32367,7 +32367,7 @@
         <v>45372.58969907407</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32429,7 +32429,7 @@
         <v>44900.3521412037</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32486,7 +32486,7 @@
         <v>45988.45105324074</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32543,7 +32543,7 @@
         <v>45581.43337962963</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32600,7 +32600,7 @@
         <v>45769.42203703704</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32662,7 +32662,7 @@
         <v>45992.62635416666</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32719,7 +32719,7 @@
         <v>45337.54135416666</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32776,7 +32776,7 @@
         <v>46030.66743055556</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32833,7 +32833,7 @@
         <v>46035.4731712963</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32890,7 +32890,7 @@
         <v>45992</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32947,7 +32947,7 @@
         <v>45992.45640046296</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -33004,7 +33004,7 @@
         <v>46020</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -33061,7 +33061,7 @@
         <v>46036.37797453703</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -33118,7 +33118,7 @@
         <v>45196.58278935185</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -33175,7 +33175,7 @@
         <v>45104.40493055555</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -33237,7 +33237,7 @@
         <v>46037.42600694444</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33294,7 +33294,7 @@
         <v>46037.61490740741</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33351,7 +33351,7 @@
         <v>46037.84224537037</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33408,7 +33408,7 @@
         <v>45593.32924768519</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -33465,7 +33465,7 @@
         <v>45205</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -33522,7 +33522,7 @@
         <v>45203</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -33579,7 +33579,7 @@
         <v>45999.66488425926</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33636,7 +33636,7 @@
         <v>45999.65799768519</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33693,7 +33693,7 @@
         <v>45708.67253472222</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33750,7 +33750,7 @@
         <v>45756.35998842592</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33812,7 +33812,7 @@
         <v>45524.61752314815</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33869,7 +33869,7 @@
         <v>44804.61636574074</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33926,7 +33926,7 @@
         <v>44363</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33983,7 +33983,7 @@
         <v>45239.36509259259</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -34040,7 +34040,7 @@
         <v>45278</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -34097,7 +34097,7 @@
         <v>45519.67503472222</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -34154,7 +34154,7 @@
         <v>46041.41971064815</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -34211,7 +34211,7 @@
         <v>46038</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -34268,7 +34268,7 @@
         <v>46036</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -34325,7 +34325,7 @@
         <v>46041.42416666666</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -34382,7 +34382,7 @@
         <v>45463</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -34439,7 +34439,7 @@
         <v>46024.62364583334</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -34496,7 +34496,7 @@
         <v>46038.39023148148</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -34553,7 +34553,7 @@
         <v>46041</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -34610,7 +34610,7 @@
         <v>46043.41603009259</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -34667,7 +34667,7 @@
         <v>45222</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34724,7 +34724,7 @@
         <v>45404.67442129629</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34781,7 +34781,7 @@
         <v>46043.61261574074</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34838,7 +34838,7 @@
         <v>46001.5266087963</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34895,7 +34895,7 @@
         <v>45519.644375</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34952,7 +34952,7 @@
         <v>46042.475625</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -35009,7 +35009,7 @@
         <v>46043</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -35066,7 +35066,7 @@
         <v>46043.64811342592</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -35128,7 +35128,7 @@
         <v>45145.36853009259</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -35185,7 +35185,7 @@
         <v>46001.58590277778</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -35242,7 +35242,7 @@
         <v>46029</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -35304,7 +35304,7 @@
         <v>46044.6533449074</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -35361,7 +35361,7 @@
         <v>46044.741875</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -35418,7 +35418,7 @@
         <v>45574.51053240741</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -35475,7 +35475,7 @@
         <v>44915.62751157407</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -35532,7 +35532,7 @@
         <v>46002.37662037037</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -35589,7 +35589,7 @@
         <v>46002.39755787037</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -35646,7 +35646,7 @@
         <v>46002.39347222223</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -35703,7 +35703,7 @@
         <v>45582.44894675926</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35760,7 +35760,7 @@
         <v>46003.63954861111</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35817,7 +35817,7 @@
         <v>44482</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35874,7 +35874,7 @@
         <v>45210</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35931,7 +35931,7 @@
         <v>45153</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35988,7 +35988,7 @@
         <v>44368</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -36045,7 +36045,7 @@
         <v>44515</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -36102,7 +36102,7 @@
         <v>46048.51449074074</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -36159,7 +36159,7 @@
         <v>46006.3365625</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -36216,7 +36216,7 @@
         <v>46049.57591435185</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -36278,7 +36278,7 @@
         <v>46006.33462962963</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -36335,7 +36335,7 @@
         <v>46048.70013888889</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -36392,7 +36392,7 @@
         <v>45632.46545138889</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -36449,7 +36449,7 @@
         <v>46007.66275462963</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -36506,7 +36506,7 @@
         <v>46030.46954861111</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -36563,7 +36563,7 @@
         <v>46051.51640046296</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -36620,7 +36620,7 @@
         <v>45756.36844907407</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -36682,7 +36682,7 @@
         <v>45057</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36744,7 +36744,7 @@
         <v>46009.45792824074</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36801,7 +36801,7 @@
         <v>46009.46129629629</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36858,7 +36858,7 @@
         <v>46029</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36920,7 +36920,7 @@
         <v>44389</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36977,7 +36977,7 @@
         <v>46009.60133101852</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -37034,7 +37034,7 @@
         <v>46051.63380787037</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -37091,7 +37091,7 @@
         <v>45036.46804398148</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -37148,7 +37148,7 @@
         <v>46008.33967592593</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -37205,7 +37205,7 @@
         <v>45188</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -37262,7 +37262,7 @@
         <v>45408.41166666667</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -37319,7 +37319,7 @@
         <v>45533</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -37376,7 +37376,7 @@
         <v>44581</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -37433,7 +37433,7 @@
         <v>46008.72493055555</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -37490,7 +37490,7 @@
         <v>45628.49931712963</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -37547,7 +37547,7 @@
         <v>46008.35011574074</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -37604,7 +37604,7 @@
         <v>45196</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -37661,7 +37661,7 @@
         <v>46008.34541666666</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37718,7 +37718,7 @@
         <v>46030</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37775,7 +37775,7 @@
         <v>45775.63119212963</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37832,7 +37832,7 @@
         <v>46051.78189814815</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37889,7 +37889,7 @@
         <v>45607.65123842593</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37946,7 +37946,7 @@
         <v>46052.33809027778</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -38003,7 +38003,7 @@
         <v>45807</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -38060,7 +38060,7 @@
         <v>45807</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -38117,7 +38117,7 @@
         <v>45807</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -38174,7 +38174,7 @@
         <v>45807</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -38231,7 +38231,7 @@
         <v>46013.36556712963</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -38293,7 +38293,7 @@
         <v>46055.36231481482</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -38355,7 +38355,7 @@
         <v>46052.50533564815</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -38412,7 +38412,7 @@
         <v>46052.47197916666</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -38469,7 +38469,7 @@
         <v>46013.36268518519</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -38531,7 +38531,7 @@
         <v>46048.50627314814</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -38588,7 +38588,7 @@
         <v>46013.42269675926</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -38650,7 +38650,7 @@
         <v>44699</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38707,7 +38707,7 @@
         <v>46057.56855324074</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38764,7 +38764,7 @@
         <v>46057.35288194445</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38821,7 +38821,7 @@
         <v>46057.58777777778</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38878,7 +38878,7 @@
         <v>45954.65564814815</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38935,7 +38935,7 @@
         <v>46013.96362268519</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38992,7 +38992,7 @@
         <v>46014.54496527778</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -39049,7 +39049,7 @@
         <v>46057.47490740741</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -39106,7 +39106,7 @@
         <v>46056.6352662037</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -39163,7 +39163,7 @@
         <v>46056.49622685185</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -39220,7 +39220,7 @@
         <v>46056.60297453704</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -39277,7 +39277,7 @@
         <v>46056.66945601852</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -39334,7 +39334,7 @@
         <v>46014.539375</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -39391,7 +39391,7 @@
         <v>46057.53868055555</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -39448,7 +39448,7 @@
         <v>46057.59153935185</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -39505,7 +39505,7 @@
         <v>46056.4644675926</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -39562,7 +39562,7 @@
         <v>45162.68787037037</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -39619,7 +39619,7 @@
         <v>45279.43570601852</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -39676,7 +39676,7 @@
         <v>46041</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -39733,7 +39733,7 @@
         <v>46059.42018518518</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39790,7 +39790,7 @@
         <v>44945.32997685186</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39847,7 +39847,7 @@
         <v>45553</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39904,7 +39904,7 @@
         <v>46027</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39961,7 +39961,7 @@
         <v>46050.59820601852</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -40018,7 +40018,7 @@
         <v>45184.58199074074</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -40080,7 +40080,7 @@
         <v>46059.46224537037</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -40137,7 +40137,7 @@
         <v>45582.45226851852</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -40194,7 +40194,7 @@
         <v>45582.45449074074</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -40251,7 +40251,7 @@
         <v>44957</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -40308,7 +40308,7 @@
         <v>44957</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -40370,7 +40370,7 @@
         <v>45203</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -40427,7 +40427,7 @@
         <v>45105.54791666667</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -40484,7 +40484,7 @@
         <v>45425.45568287037</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -40541,7 +40541,7 @@
         <v>45588.59290509259</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -40598,7 +40598,7 @@
         <v>45147.3934837963</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -40655,7 +40655,7 @@
         <v>45253.43202546296</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -40712,7 +40712,7 @@
         <v>44887.43714120371</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40774,7 +40774,7 @@
         <v>45562.33179398148</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40831,7 +40831,7 @@
         <v>45642.64803240741</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40893,7 +40893,7 @@
         <v>45264</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40955,7 +40955,7 @@
         <v>45173</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -41017,7 +41017,7 @@
         <v>45691.69671296296</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -41074,7 +41074,7 @@
         <v>45573</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -41131,7 +41131,7 @@
         <v>45761.60459490741</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -41193,7 +41193,7 @@
         <v>45247</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -41250,7 +41250,7 @@
         <v>44725</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -41307,7 +41307,7 @@
         <v>45621.45765046297</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -41364,7 +41364,7 @@
         <v>44382.57981481482</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -41421,7 +41421,7 @@
         <v>45567.33655092592</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -41478,7 +41478,7 @@
         <v>45415.58502314815</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -41535,7 +41535,7 @@
         <v>45210</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -41592,7 +41592,7 @@
         <v>45105.54270833333</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -41649,7 +41649,7 @@
         <v>44266</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -41706,7 +41706,7 @@
         <v>44347</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41763,7 +41763,7 @@
         <v>45499.51721064815</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41820,7 +41820,7 @@
         <v>45420.68172453704</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41877,7 +41877,7 @@
         <v>45554.6687037037</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41934,7 +41934,7 @@
         <v>45174.34662037037</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41991,7 +41991,7 @@
         <v>44838</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -42048,7 +42048,7 @@
         <v>45188</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -42105,7 +42105,7 @@
         <v>45636</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -42167,7 +42167,7 @@
         <v>45695.54651620371</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -42224,7 +42224,7 @@
         <v>45334.38981481481</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -42281,7 +42281,7 @@
         <v>45553.44084490741</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -42338,7 +42338,7 @@
         <v>45608.69395833334</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -42395,7 +42395,7 @@
         <v>44838.46721064814</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -42452,7 +42452,7 @@
         <v>44642.65418981481</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -42509,7 +42509,7 @@
         <v>45756</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -42566,7 +42566,7 @@
         <v>45524.62600694445</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -42623,7 +42623,7 @@
         <v>45544</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -42680,7 +42680,7 @@
         <v>45343.95445601852</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42737,7 +42737,7 @@
         <v>45072.34796296297</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42794,7 +42794,7 @@
         <v>45260.5284375</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42851,7 +42851,7 @@
         <v>45350</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42908,7 +42908,7 @@
         <v>45754.36738425926</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42965,7 +42965,7 @@
         <v>44244</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -43022,7 +43022,7 @@
         <v>45215.43879629629</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -43079,7 +43079,7 @@
         <v>45476.68435185185</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -43136,7 +43136,7 @@
         <v>45476.68616898148</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -43193,7 +43193,7 @@
         <v>45385.55375</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -43250,7 +43250,7 @@
         <v>45589.76975694444</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -43307,7 +43307,7 @@
         <v>45252.48592592592</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -43364,7 +43364,7 @@
         <v>45098</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -43421,7 +43421,7 @@
         <v>45237.60775462963</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -43483,7 +43483,7 @@
         <v>45460.70204861111</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -43540,7 +43540,7 @@
         <v>44957</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -43597,7 +43597,7 @@
         <v>45567.35359953704</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -43654,7 +43654,7 @@
         <v>45363.40368055556</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43711,7 +43711,7 @@
         <v>45440.59936342593</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43768,7 +43768,7 @@
         <v>45481.42923611111</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43825,7 +43825,7 @@
         <v>45490.33387731481</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43882,7 +43882,7 @@
         <v>45632.46821759259</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43939,7 +43939,7 @@
         <v>45576.54820601852</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -44001,7 +44001,7 @@
         <v>45632.34984953704</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -44058,7 +44058,7 @@
         <v>44953</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -44115,7 +44115,7 @@
         <v>44953.44965277778</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -44172,7 +44172,7 @@
         <v>44438</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -44229,7 +44229,7 @@
         <v>45631.71893518518</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -44286,7 +44286,7 @@
         <v>44949.57856481482</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -44343,7 +44343,7 @@
         <v>45744.50722222222</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -44400,7 +44400,7 @@
         <v>44819.66083333334</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -44457,7 +44457,7 @@
         <v>45272</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -44514,7 +44514,7 @@
         <v>45376.61019675926</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -44571,7 +44571,7 @@
         <v>44937</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -44628,7 +44628,7 @@
         <v>44806</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44685,7 +44685,7 @@
         <v>45180</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44747,7 +44747,7 @@
         <v>44533</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44804,7 +44804,7 @@
         <v>45279</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44861,7 +44861,7 @@
         <v>45540.85054398148</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44918,7 +44918,7 @@
         <v>45743.55756944444</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44975,7 +44975,7 @@
         <v>45229</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -45032,7 +45032,7 @@
         <v>45615.49371527778</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -45089,7 +45089,7 @@
         <v>45008.64575231481</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -45146,7 +45146,7 @@
         <v>45628.41587962963</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -45203,7 +45203,7 @@
         <v>45761</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -45265,7 +45265,7 @@
         <v>45761.59523148148</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -45327,7 +45327,7 @@
         <v>44589</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -45384,7 +45384,7 @@
         <v>45194</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -45441,7 +45441,7 @@
         <v>45576.43782407408</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -45498,7 +45498,7 @@
         <v>45756.37201388889</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -45560,7 +45560,7 @@
         <v>45162</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -45617,7 +45617,7 @@
         <v>45625.55440972222</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45674,7 +45674,7 @@
         <v>45691.36403935185</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45731,7 +45731,7 @@
         <v>45259</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45788,7 +45788,7 @@
         <v>45756.36403935185</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45850,7 +45850,7 @@
         <v>45460.69545138889</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45907,7 +45907,7 @@
         <v>45756.56131944444</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45964,7 +45964,7 @@
         <v>44953</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -46021,7 +46021,7 @@
         <v>45188</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -46078,7 +46078,7 @@
         <v>45448.38677083333</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -46135,7 +46135,7 @@
         <v>44694.62913194444</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -46192,7 +46192,7 @@
         <v>44851</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -46249,7 +46249,7 @@
         <v>45334</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -46311,7 +46311,7 @@
         <v>45520</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -46368,7 +46368,7 @@
         <v>45584.42887731481</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -46425,7 +46425,7 @@
         <v>45553.47538194444</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -46482,7 +46482,7 @@
         <v>45520.48304398148</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -46539,7 +46539,7 @@
         <v>45439</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -46601,7 +46601,7 @@
         <v>45561.3771412037</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -46658,7 +46658,7 @@
         <v>45607.57142361111</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46715,7 +46715,7 @@
         <v>45516.40261574074</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46772,7 +46772,7 @@
         <v>44244</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46829,7 +46829,7 @@
         <v>45090</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46886,7 +46886,7 @@
         <v>45554.88538194444</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46943,7 +46943,7 @@
         <v>45572.48407407408</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -47000,7 +47000,7 @@
         <v>45607</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -47057,7 +47057,7 @@
         <v>45567.3515162037</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -47114,7 +47114,7 @@
         <v>45572.38429398148</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -47171,7 +47171,7 @@
         <v>45741.4050462963</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -47228,7 +47228,7 @@
         <v>45741</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -47285,7 +47285,7 @@
         <v>45410.78502314815</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -47342,7 +47342,7 @@
         <v>45264.43802083333</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -47404,7 +47404,7 @@
         <v>45264</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -47466,7 +47466,7 @@
         <v>45551.45322916667</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -47523,7 +47523,7 @@
         <v>45618</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -47580,7 +47580,7 @@
         <v>45453.44091435185</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -47637,7 +47637,7 @@
         <v>45408.46980324074</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -47694,7 +47694,7 @@
         <v>45784.45060185185</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -47751,7 +47751,7 @@
         <v>45784.44481481481</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -47808,7 +47808,7 @@
         <v>45784.45273148148</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -47865,7 +47865,7 @@
         <v>45786.45721064815</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -47927,7 +47927,7 @@
         <v>45786.54940972223</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -47989,7 +47989,7 @@
         <v>45791.70299768518</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -48046,7 +48046,7 @@
         <v>45625</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -48103,7 +48103,7 @@
         <v>45625</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -48160,7 +48160,7 @@
         <v>45785</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -48217,7 +48217,7 @@
         <v>45638</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -48274,7 +48274,7 @@
         <v>45725</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -48331,7 +48331,7 @@
         <v>45625</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -48388,7 +48388,7 @@
         <v>44720</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -48445,7 +48445,7 @@
         <v>45232.53052083333</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -48502,7 +48502,7 @@
         <v>45791</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -48559,7 +48559,7 @@
         <v>45272</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -48616,7 +48616,7 @@
         <v>45796.63137731481</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -48673,7 +48673,7 @@
         <v>45797.40260416667</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -48730,7 +48730,7 @@
         <v>45715.45341435185</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -48787,7 +48787,7 @@
         <v>44796.60479166666</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -48844,7 +48844,7 @@
         <v>45049</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -48901,7 +48901,7 @@
         <v>45797.37607638889</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -48958,7 +48958,7 @@
         <v>45797.45581018519</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -49015,7 +49015,7 @@
         <v>45769</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>

--- a/Översikt MORA.xlsx
+++ b/Översikt MORA.xlsx
@@ -575,7 +575,7 @@
         <v>45737</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         <v>45855</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>45118</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -953,7 +953,7 @@
         <v>45763</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1078,7 +1078,7 @@
         <v>45826</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1198,7 +1198,7 @@
         <v>45944.29658564815</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         <v>45932.43633101852</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         <v>45666</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1533,7 +1533,7 @@
         <v>45982.44465277778</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>45919</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1751,7 +1751,7 @@
         <v>45967.57792824074</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1856,7 +1856,7 @@
         <v>45911</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>45853</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2071,7 +2071,7 @@
         <v>45749</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2175,7 +2175,7 @@
         <v>45775</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2279,7 +2279,7 @@
         <v>45855</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2387,7 +2387,7 @@
         <v>45590</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
         <v>45625</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
         <v>45792</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         <v>45855</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>45916.39680555555</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
         <v>45217.60914351852</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>45833</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3102,7 +3102,7 @@
         <v>44958.60337962963</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>45848</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
         <v>45533.45853009259</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3400,7 +3400,7 @@
         <v>45978.62241898148</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>45826</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3592,7 +3592,7 @@
         <v>45895.42209490741</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3689,7 +3689,7 @@
         <v>45981.41530092592</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3782,7 +3782,7 @@
         <v>45653.49774305556</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         <v>45902.60008101852</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3976,7 +3976,7 @@
         <v>45061.58952546296</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4074,7 +4074,7 @@
         <v>45855</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4176,7 +4176,7 @@
         <v>45642</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>45890.35232638889</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4372,7 +4372,7 @@
         <v>45925.6530324074</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4468,7 +4468,7 @@
         <v>45832</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4564,7 +4564,7 @@
         <v>45841.40309027778</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4660,7 +4660,7 @@
         <v>45825.3303125</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4755,7 +4755,7 @@
         <v>45824.59025462963</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4850,7 +4850,7 @@
         <v>45264</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4950,7 +4950,7 @@
         <v>45987.36070601852</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>45848</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>45982.72690972222</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5243,7 +5243,7 @@
         <v>46006.48664351852</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
         <v>45525</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>45712.57467592593</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5521,7 +5521,7 @@
         <v>45959.6131712963</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         <v>44343</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5711,7 +5711,7 @@
         <v>45833</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5808,7 +5808,7 @@
         <v>45985.64645833334</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5901,7 +5901,7 @@
         <v>45855</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>45890.3469212963</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>45890.35881944445</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6179,7 +6179,7 @@
         <v>45835.59140046296</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>45743.36951388889</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6363,7 +6363,7 @@
         <v>45848</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         <v>46002.64605324074</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6551,7 +6551,7 @@
         <v>45393.63902777778</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         <v>45418.39261574074</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>45890.35545138889</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6822,7 +6822,7 @@
         <v>45824.60537037037</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6909,7 +6909,7 @@
         <v>45939.67418981482</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -7000,7 +7000,7 @@
         <v>46008.34148148148</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -7091,7 +7091,7 @@
         <v>45791.41832175926</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>45177.49715277777</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7277,7 +7277,7 @@
         <v>45159.32799768518</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         <v>45852.45686342593</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7449,7 +7449,7 @@
         <v>45406.41648148148</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7539,7 +7539,7 @@
         <v>44959.55116898148</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7629,7 +7629,7 @@
         <v>45471</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7714,7 +7714,7 @@
         <v>45665.58001157407</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7799,7 +7799,7 @@
         <v>44529</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7888,7 +7888,7 @@
         <v>44897</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7973,7 +7973,7 @@
         <v>45077</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -8058,7 +8058,7 @@
         <v>46006.38961805555</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8143,7 +8143,7 @@
         <v>45576</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -8228,7 +8228,7 @@
         <v>44364</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8322,7 +8322,7 @@
         <v>45007</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8411,7 +8411,7 @@
         <v>45775.62283564815</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8496,7 +8496,7 @@
         <v>44410</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>44553</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>44427</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>44517.934375</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>44546.5862037037</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8781,7 +8781,7 @@
         <v>44796</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>44813</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8900,7 +8900,7 @@
         <v>44515</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>44832.31839120371</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>44362.38358796296</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9071,7 +9071,7 @@
         <v>44470.63695601852</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
         <v>44838</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         <v>44459.68884259259</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9247,7 +9247,7 @@
         <v>44601</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9304,7 +9304,7 @@
         <v>44705</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9361,7 +9361,7 @@
         <v>44545</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9423,7 +9423,7 @@
         <v>44421</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9480,7 +9480,7 @@
         <v>44455</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9537,7 +9537,7 @@
         <v>44295</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9594,7 +9594,7 @@
         <v>44421</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9651,7 +9651,7 @@
         <v>44516.42728009259</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>44417.43135416666</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9765,7 +9765,7 @@
         <v>44747</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9827,7 +9827,7 @@
         <v>44432</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>44301</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>44365.59125</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9998,7 +9998,7 @@
         <v>44365.58731481482</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10055,7 +10055,7 @@
         <v>44365</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10112,7 +10112,7 @@
         <v>44848</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10169,7 +10169,7 @@
         <v>44844.47778935185</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10231,7 +10231,7 @@
         <v>44369.7362037037</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10288,7 +10288,7 @@
         <v>44243</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10345,7 +10345,7 @@
         <v>44673</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10402,7 +10402,7 @@
         <v>44425</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         <v>44455</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10516,7 +10516,7 @@
         <v>44788.32601851852</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10573,7 +10573,7 @@
         <v>44845.35591435185</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10630,7 +10630,7 @@
         <v>44489</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10692,7 +10692,7 @@
         <v>44523.35982638889</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10749,7 +10749,7 @@
         <v>44423.65152777778</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10811,7 +10811,7 @@
         <v>44609.62314814814</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10868,7 +10868,7 @@
         <v>44421</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10925,7 +10925,7 @@
         <v>44578.66320601852</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10982,7 +10982,7 @@
         <v>44389.62159722222</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11039,7 +11039,7 @@
         <v>44658</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11096,7 +11096,7 @@
         <v>44546.60960648148</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11153,7 +11153,7 @@
         <v>44530</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11210,7 +11210,7 @@
         <v>44466</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11267,7 +11267,7 @@
         <v>44742.58386574074</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11329,7 +11329,7 @@
         <v>44517.92888888889</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11386,7 +11386,7 @@
         <v>44488</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11448,7 +11448,7 @@
         <v>44480.57549768518</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11505,7 +11505,7 @@
         <v>44749.56221064815</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11567,7 +11567,7 @@
         <v>44782</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11629,7 +11629,7 @@
         <v>44589.65528935185</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11686,7 +11686,7 @@
         <v>44301</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11743,7 +11743,7 @@
         <v>44543</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11800,7 +11800,7 @@
         <v>44680.4265162037</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11857,7 +11857,7 @@
         <v>44489.94246527777</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11914,7 +11914,7 @@
         <v>44796.60181712963</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         <v>44858.66387731482</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -12028,7 +12028,7 @@
         <v>44810.63806712963</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -12085,7 +12085,7 @@
         <v>44522</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12142,7 +12142,7 @@
         <v>44613</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12199,7 +12199,7 @@
         <v>44656.37616898148</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12256,7 +12256,7 @@
         <v>44326</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12313,7 +12313,7 @@
         <v>44726</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12370,7 +12370,7 @@
         <v>45530</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12427,7 +12427,7 @@
         <v>45775.74009259259</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12484,7 +12484,7 @@
         <v>45637.34074074074</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12546,7 +12546,7 @@
         <v>45351.41524305556</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12603,7 +12603,7 @@
         <v>45351.46583333334</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12660,7 +12660,7 @@
         <v>45692.68561342593</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12717,7 +12717,7 @@
         <v>45533</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12774,7 +12774,7 @@
         <v>45756.37520833333</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>44874</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12898,7 +12898,7 @@
         <v>45590.60216435185</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12955,7 +12955,7 @@
         <v>44630.62788194444</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -13012,7 +13012,7 @@
         <v>45572.38476851852</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -13069,7 +13069,7 @@
         <v>45642.55645833333</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13126,7 +13126,7 @@
         <v>45747.48371527778</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13183,7 +13183,7 @@
         <v>45264.65987268519</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13240,7 +13240,7 @@
         <v>45167</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13297,7 +13297,7 @@
         <v>45743</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13354,7 +13354,7 @@
         <v>45510.40587962963</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13411,7 +13411,7 @@
         <v>45568.64337962963</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13468,7 +13468,7 @@
         <v>45730.59239583334</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13530,7 +13530,7 @@
         <v>45576</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13587,7 +13587,7 @@
         <v>45622.65269675926</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13644,7 +13644,7 @@
         <v>45763.63166666667</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13701,7 +13701,7 @@
         <v>45544</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13758,7 +13758,7 @@
         <v>44768</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13815,7 +13815,7 @@
         <v>44852</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13872,7 +13872,7 @@
         <v>44531</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13929,7 +13929,7 @@
         <v>45757.52033564815</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         <v>45602.7022337963</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -14043,7 +14043,7 @@
         <v>44896</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14100,7 +14100,7 @@
         <v>45401.4194212963</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14157,7 +14157,7 @@
         <v>45531.34050925926</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14214,7 +14214,7 @@
         <v>44435</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14271,7 +14271,7 @@
         <v>44796</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14328,7 +14328,7 @@
         <v>44810.64164351852</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14390,7 +14390,7 @@
         <v>44859.52145833334</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14447,7 +14447,7 @@
         <v>45695.42762731481</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14504,7 +14504,7 @@
         <v>45280</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14561,7 +14561,7 @@
         <v>45184.53412037037</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14623,7 +14623,7 @@
         <v>45412</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14680,7 +14680,7 @@
         <v>45798.62243055556</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14742,7 +14742,7 @@
         <v>45512.70077546296</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14804,7 +14804,7 @@
         <v>45691.35427083333</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14861,7 +14861,7 @@
         <v>45749.58428240741</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14918,7 +14918,7 @@
         <v>45219</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14975,7 +14975,7 @@
         <v>44482</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -15032,7 +15032,7 @@
         <v>44995</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -15089,7 +15089,7 @@
         <v>45799.56524305556</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15146,7 +15146,7 @@
         <v>45798.6003587963</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15208,7 +15208,7 @@
         <v>45799.57666666667</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15265,7 +15265,7 @@
         <v>45798.62894675926</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15327,7 +15327,7 @@
         <v>45240</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15384,7 +15384,7 @@
         <v>45260.46609953704</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15441,7 +15441,7 @@
         <v>44959.54355324074</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15503,7 +15503,7 @@
         <v>44898</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15560,7 +15560,7 @@
         <v>45264</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15622,7 +15622,7 @@
         <v>44473.39252314815</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15679,7 +15679,7 @@
         <v>45090.68675925926</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15736,7 +15736,7 @@
         <v>45450</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15798,7 +15798,7 @@
         <v>45603.58619212963</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15855,7 +15855,7 @@
         <v>45253</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15912,7 +15912,7 @@
         <v>45153</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15969,7 +15969,7 @@
         <v>45530.71158564815</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -16026,7 +16026,7 @@
         <v>44518.39234953704</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16083,7 +16083,7 @@
         <v>45194.59378472222</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16140,7 +16140,7 @@
         <v>45222</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16197,7 +16197,7 @@
         <v>45254</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16254,7 +16254,7 @@
         <v>45807</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16311,7 +16311,7 @@
         <v>45497</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16368,7 +16368,7 @@
         <v>45260.46438657407</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16425,7 +16425,7 @@
         <v>45810.50702546296</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16482,7 +16482,7 @@
         <v>45439.45527777778</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16539,7 +16539,7 @@
         <v>45625.38677083333</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16596,7 +16596,7 @@
         <v>45810.46144675926</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16653,7 +16653,7 @@
         <v>45705.59269675926</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16710,7 +16710,7 @@
         <v>45810.67462962963</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16767,7 +16767,7 @@
         <v>45810.38439814815</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16824,7 +16824,7 @@
         <v>44337</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16881,7 +16881,7 @@
         <v>45645.74694444444</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16938,7 +16938,7 @@
         <v>45809</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16995,7 +16995,7 @@
         <v>45812.37965277778</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -17052,7 +17052,7 @@
         <v>45889.76200231481</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17114,7 +17114,7 @@
         <v>45756</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17171,7 +17171,7 @@
         <v>45891</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17228,7 +17228,7 @@
         <v>45439.51907407407</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17290,7 +17290,7 @@
         <v>44831.81482638889</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17347,7 +17347,7 @@
         <v>45813.59405092592</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17404,7 +17404,7 @@
         <v>45891</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17461,7 +17461,7 @@
         <v>45812.36133101852</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17518,7 +17518,7 @@
         <v>45812.3533912037</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17580,7 +17580,7 @@
         <v>45742.38511574074</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17642,7 +17642,7 @@
         <v>45812.35072916667</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17704,7 +17704,7 @@
         <v>45895.67356481482</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17761,7 +17761,7 @@
         <v>45758.62951388889</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17818,7 +17818,7 @@
         <v>45132.6291550926</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17880,7 +17880,7 @@
         <v>45817.6325462963</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17942,7 +17942,7 @@
         <v>45645.62282407407</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17999,7 +17999,7 @@
         <v>45800</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -18056,7 +18056,7 @@
         <v>45159.59186342593</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18113,7 +18113,7 @@
         <v>45894.57016203704</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18170,7 +18170,7 @@
         <v>45894.57202546296</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18227,7 +18227,7 @@
         <v>45576</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18284,7 +18284,7 @@
         <v>45894.57918981482</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18341,7 +18341,7 @@
         <v>45541.61094907407</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18398,7 +18398,7 @@
         <v>45104</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18455,7 +18455,7 @@
         <v>45896.64631944444</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18517,7 +18517,7 @@
         <v>45897.46659722222</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18574,7 +18574,7 @@
         <v>45896.64715277778</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18631,7 +18631,7 @@
         <v>45019.71342592593</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18688,7 +18688,7 @@
         <v>45799</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18745,7 +18745,7 @@
         <v>45694.59288194445</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18802,7 +18802,7 @@
         <v>44956</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18859,7 +18859,7 @@
         <v>45898.5738425926</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18916,7 +18916,7 @@
         <v>45232.63217592592</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18973,7 +18973,7 @@
         <v>45898.55165509259</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19030,7 +19030,7 @@
         <v>44484</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19087,7 +19087,7 @@
         <v>45901.68267361111</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19149,7 +19149,7 @@
         <v>44581</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19206,7 +19206,7 @@
         <v>45798.59290509259</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19268,7 +19268,7 @@
         <v>45798.63875</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19330,7 +19330,7 @@
         <v>45821.50900462963</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         <v>45902.58721064815</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19444,7 +19444,7 @@
         <v>45821.34855324074</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         <v>45820.67107638889</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19563,7 +19563,7 @@
         <v>45820.67221064815</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19620,7 +19620,7 @@
         <v>45757.34350694445</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19677,7 +19677,7 @@
         <v>45820.66846064815</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19734,7 +19734,7 @@
         <v>45820.40034722222</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19796,7 +19796,7 @@
         <v>45090.62493055555</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19853,7 +19853,7 @@
         <v>45902.93693287037</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19910,7 +19910,7 @@
         <v>45903</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19967,7 +19967,7 @@
         <v>45279.46009259259</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -20024,7 +20024,7 @@
         <v>45904.32134259259</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20081,7 +20081,7 @@
         <v>45433.5741087963</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20138,7 +20138,7 @@
         <v>45453.43695601852</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20195,7 +20195,7 @@
         <v>45908.56168981481</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20252,7 +20252,7 @@
         <v>45909.34799768519</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20314,7 +20314,7 @@
         <v>45909.36631944445</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20371,7 +20371,7 @@
         <v>44313.54942129629</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20428,7 +20428,7 @@
         <v>45825.34322916667</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20485,7 +20485,7 @@
         <v>44617.48909722222</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20542,7 +20542,7 @@
         <v>45909.3578125</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20599,7 +20599,7 @@
         <v>45147.33251157407</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20656,7 +20656,7 @@
         <v>45908.57753472222</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20713,7 +20713,7 @@
         <v>45824.65862268519</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20770,7 +20770,7 @@
         <v>45910.34953703704</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         <v>45911.63363425926</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20884,7 +20884,7 @@
         <v>45824.64524305556</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20941,7 +20941,7 @@
         <v>45910.34449074074</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20998,7 +20998,7 @@
         <v>45260.52684027778</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21055,7 +21055,7 @@
         <v>45232.64195601852</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21112,7 +21112,7 @@
         <v>45911.48967592593</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21169,7 +21169,7 @@
         <v>45826.6575</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21226,7 +21226,7 @@
         <v>45463</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21283,7 +21283,7 @@
         <v>45912.58710648148</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21340,7 +21340,7 @@
         <v>44903.6605324074</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21397,7 +21397,7 @@
         <v>45916.48513888889</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>45827.33116898148</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>45826.35716435185</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>45826</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21630,7 +21630,7 @@
         <v>45226.49950231481</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21687,7 +21687,7 @@
         <v>45420</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21744,7 +21744,7 @@
         <v>45917.466875</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21801,7 +21801,7 @@
         <v>45919.53329861111</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21858,7 +21858,7 @@
         <v>45831.24760416667</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21915,7 +21915,7 @@
         <v>45259.57872685185</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21972,7 +21972,7 @@
         <v>45831.25519675926</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -22029,7 +22029,7 @@
         <v>45646.74988425926</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22086,7 +22086,7 @@
         <v>45259.50996527778</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22143,7 +22143,7 @@
         <v>44942.57987268519</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22200,7 +22200,7 @@
         <v>45919.54811342592</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22257,7 +22257,7 @@
         <v>45832.48185185185</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22319,7 +22319,7 @@
         <v>45611.63849537037</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22376,7 +22376,7 @@
         <v>44755.59188657408</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22433,7 +22433,7 @@
         <v>45096</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22490,7 +22490,7 @@
         <v>45624.65785879629</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22547,7 +22547,7 @@
         <v>45013</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22604,7 +22604,7 @@
         <v>45831.92416666666</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22661,7 +22661,7 @@
         <v>45831.93105324074</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22718,7 +22718,7 @@
         <v>45629</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22780,7 +22780,7 @@
         <v>45924.5253125</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22837,7 +22837,7 @@
         <v>45924.52871527777</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22894,7 +22894,7 @@
         <v>45667.46648148148</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22951,7 +22951,7 @@
         <v>45925</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23008,7 +23008,7 @@
         <v>45715.59936342593</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23065,7 +23065,7 @@
         <v>45926.3312962963</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23122,7 +23122,7 @@
         <v>45299</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23179,7 +23179,7 @@
         <v>45775.63459490741</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23236,7 +23236,7 @@
         <v>45834.60209490741</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23293,7 +23293,7 @@
         <v>45834.60525462963</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23350,7 +23350,7 @@
         <v>45730.57429398148</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23412,7 +23412,7 @@
         <v>45926.34195601852</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23469,7 +23469,7 @@
         <v>45615.47137731482</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23526,7 +23526,7 @@
         <v>45929</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23583,7 +23583,7 @@
         <v>45929.61931712963</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23640,7 +23640,7 @@
         <v>45929.6365162037</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23697,7 +23697,7 @@
         <v>45834.59822916667</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23754,7 +23754,7 @@
         <v>45764.35269675926</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23811,7 +23811,7 @@
         <v>45930.61896990741</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23868,7 +23868,7 @@
         <v>45931.69100694444</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23925,7 +23925,7 @@
         <v>45931.70715277778</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23982,7 +23982,7 @@
         <v>45617.83969907407</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24039,7 +24039,7 @@
         <v>45933.71648148148</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24096,7 +24096,7 @@
         <v>45932.42298611111</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24153,7 +24153,7 @@
         <v>45839.57559027777</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24210,7 +24210,7 @@
         <v>44907</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24267,7 +24267,7 @@
         <v>45933.71896990741</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24324,7 +24324,7 @@
         <v>45245.64877314815</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24381,7 +24381,7 @@
         <v>45184</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24443,7 +24443,7 @@
         <v>44781.5350925926</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24500,7 +24500,7 @@
         <v>45531.38372685185</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24557,7 +24557,7 @@
         <v>45387.5900925926</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24614,7 +24614,7 @@
         <v>45931</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24671,7 +24671,7 @@
         <v>45931</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24728,7 +24728,7 @@
         <v>45937.50666666667</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24785,7 +24785,7 @@
         <v>45937.51315972222</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24842,7 +24842,7 @@
         <v>45938.67662037037</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24904,7 +24904,7 @@
         <v>45841</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24961,7 +24961,7 @@
         <v>45938.66932870371</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25023,7 +25023,7 @@
         <v>45056</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25080,7 +25080,7 @@
         <v>45939.49045138889</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25137,7 +25137,7 @@
         <v>45477.75744212963</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25194,7 +25194,7 @@
         <v>45077</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25251,7 +25251,7 @@
         <v>45940.44993055556</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25308,7 +25308,7 @@
         <v>45252</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25365,7 +25365,7 @@
         <v>45845.60520833333</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25422,7 +25422,7 @@
         <v>45844.58890046296</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25479,7 +25479,7 @@
         <v>45931</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25536,7 +25536,7 @@
         <v>45847.38469907407</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25593,7 +25593,7 @@
         <v>44847.518125</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25650,7 +25650,7 @@
         <v>45846</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25707,7 +25707,7 @@
         <v>45849.57297453703</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25769,7 +25769,7 @@
         <v>44830</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25826,7 +25826,7 @@
         <v>45951.64653935185</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25883,7 +25883,7 @@
         <v>45852.60936342592</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25945,7 +25945,7 @@
         <v>45855.35989583333</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26002,7 +26002,7 @@
         <v>45358.63265046296</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26059,7 +26059,7 @@
         <v>45404.67387731482</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26116,7 +26116,7 @@
         <v>45859.35384259259</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26173,7 +26173,7 @@
         <v>45860.471875</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26230,7 +26230,7 @@
         <v>45859</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26292,7 +26292,7 @@
         <v>44900.65716435185</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26349,7 +26349,7 @@
         <v>45859</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26411,7 +26411,7 @@
         <v>45859</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26473,7 +26473,7 @@
         <v>45427.61516203704</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26530,7 +26530,7 @@
         <v>45952.69306712963</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26587,7 +26587,7 @@
         <v>44911</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26644,7 +26644,7 @@
         <v>45866.34385416667</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26701,7 +26701,7 @@
         <v>45750</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26758,7 +26758,7 @@
         <v>45957.44552083333</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26815,7 +26815,7 @@
         <v>45869</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26872,7 +26872,7 @@
         <v>45873.57319444444</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26929,7 +26929,7 @@
         <v>44893</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26986,7 +26986,7 @@
         <v>45296</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27043,7 +27043,7 @@
         <v>45505.47716435185</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27105,7 +27105,7 @@
         <v>45958.48611111111</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27167,7 +27167,7 @@
         <v>45958.48280092593</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27229,7 +27229,7 @@
         <v>44497</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27286,7 +27286,7 @@
         <v>45401.40806712963</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27343,7 +27343,7 @@
         <v>45502.48047453703</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27400,7 +27400,7 @@
         <v>45187.62532407408</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27462,7 +27462,7 @@
         <v>44909.52385416667</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27519,7 +27519,7 @@
         <v>45874.38655092593</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27576,7 +27576,7 @@
         <v>44644.70184027778</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27633,7 +27633,7 @@
         <v>45072</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27690,7 +27690,7 @@
         <v>45244</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27747,7 +27747,7 @@
         <v>44865</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27804,7 +27804,7 @@
         <v>45875.39822916667</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27861,7 +27861,7 @@
         <v>45876.46681712963</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27918,7 +27918,7 @@
         <v>45401.53798611111</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27975,7 +27975,7 @@
         <v>45748.39222222222</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28032,7 +28032,7 @@
         <v>45961.57019675926</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28089,7 +28089,7 @@
         <v>45960.40711805555</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28146,7 +28146,7 @@
         <v>45960.49972222222</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28203,7 +28203,7 @@
         <v>45198.61314814815</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28260,7 +28260,7 @@
         <v>45960.39960648148</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28317,7 +28317,7 @@
         <v>45960.40662037037</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28374,7 +28374,7 @@
         <v>45960.43893518519</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28431,7 +28431,7 @@
         <v>45959</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28488,7 +28488,7 @@
         <v>45761.59221064814</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28550,7 +28550,7 @@
         <v>45960.3921875</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28607,7 +28607,7 @@
         <v>45965.61844907407</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28664,7 +28664,7 @@
         <v>45190.51887731482</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28721,7 +28721,7 @@
         <v>45965.62608796296</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28778,7 +28778,7 @@
         <v>45964.41665509259</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28835,7 +28835,7 @@
         <v>45965.4031712963</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28892,7 +28892,7 @@
         <v>45965.61686342592</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28949,7 +28949,7 @@
         <v>45551.68347222222</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -29006,7 +29006,7 @@
         <v>45966.85649305556</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29068,7 +29068,7 @@
         <v>44897</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29125,7 +29125,7 @@
         <v>45966.76542824074</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29182,7 +29182,7 @@
         <v>45881.48791666667</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29239,7 +29239,7 @@
         <v>45882.47625</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29296,7 +29296,7 @@
         <v>45471</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29353,7 +29353,7 @@
         <v>45614.61569444444</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29410,7 +29410,7 @@
         <v>45967.374375</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29467,7 +29467,7 @@
         <v>45967.38884259259</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29529,7 +29529,7 @@
         <v>45967.3700462963</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -29586,7 +29586,7 @@
         <v>45967.37679398148</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29643,7 +29643,7 @@
         <v>45497</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29700,7 +29700,7 @@
         <v>44600</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29757,7 +29757,7 @@
         <v>45646.37872685185</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29814,7 +29814,7 @@
         <v>45968.40056712963</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29871,7 +29871,7 @@
         <v>45968.64847222222</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29928,7 +29928,7 @@
         <v>45968.8227662037</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29985,7 +29985,7 @@
         <v>45882</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -30042,7 +30042,7 @@
         <v>45968.40621527778</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -30099,7 +30099,7 @@
         <v>45772.49640046297</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -30156,7 +30156,7 @@
         <v>45474.37850694444</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30213,7 +30213,7 @@
         <v>45755.46106481482</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30275,7 +30275,7 @@
         <v>45551.44503472222</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30332,7 +30332,7 @@
         <v>45645.76561342592</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30389,7 +30389,7 @@
         <v>45460</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30446,7 +30446,7 @@
         <v>44725.50280092593</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30508,7 +30508,7 @@
         <v>44837</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -30565,7 +30565,7 @@
         <v>45615.48465277778</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30622,7 +30622,7 @@
         <v>45977.45586805556</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30679,7 +30679,7 @@
         <v>45979.43388888889</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30736,7 +30736,7 @@
         <v>45979.44006944444</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30793,7 +30793,7 @@
         <v>45722.47743055555</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30850,7 +30850,7 @@
         <v>45771.47938657407</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30907,7 +30907,7 @@
         <v>45188.51439814815</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30964,7 +30964,7 @@
         <v>45981.41228009259</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -31021,7 +31021,7 @@
         <v>45981.37621527778</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -31078,7 +31078,7 @@
         <v>45981.62792824074</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -31135,7 +31135,7 @@
         <v>45761.60189814815</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -31197,7 +31197,7 @@
         <v>45981.63909722222</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31254,7 +31254,7 @@
         <v>45980.5122337963</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31316,7 +31316,7 @@
         <v>45985.63859953704</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31373,7 +31373,7 @@
         <v>45982.43615740741</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31430,7 +31430,7 @@
         <v>45530.71334490741</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31487,7 +31487,7 @@
         <v>45982.39435185185</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31544,7 +31544,7 @@
         <v>45502.55185185185</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31601,7 +31601,7 @@
         <v>45296.60353009259</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31658,7 +31658,7 @@
         <v>45299</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31715,7 +31715,7 @@
         <v>44859</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31772,7 +31772,7 @@
         <v>45771.45686342593</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31829,7 +31829,7 @@
         <v>45259</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31886,7 +31886,7 @@
         <v>45229</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31943,7 +31943,7 @@
         <v>45001</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -32005,7 +32005,7 @@
         <v>45965.6534837963</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -32062,7 +32062,7 @@
         <v>45063</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -32119,7 +32119,7 @@
         <v>45968.42591435185</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -32176,7 +32176,7 @@
         <v>45320</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32253,7 +32253,7 @@
         <v>45188</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32310,7 +32310,7 @@
         <v>45572.60915509259</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32367,7 +32367,7 @@
         <v>45372.58969907407</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32429,7 +32429,7 @@
         <v>44900.3521412037</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32486,7 +32486,7 @@
         <v>45988.45105324074</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32543,7 +32543,7 @@
         <v>45581.43337962963</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32600,7 +32600,7 @@
         <v>45769.42203703704</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32662,7 +32662,7 @@
         <v>45992.62635416666</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32719,7 +32719,7 @@
         <v>45337.54135416666</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32776,7 +32776,7 @@
         <v>46030.66743055556</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32833,7 +32833,7 @@
         <v>46035.4731712963</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32890,7 +32890,7 @@
         <v>45992</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32947,7 +32947,7 @@
         <v>45992.45640046296</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -33004,7 +33004,7 @@
         <v>46020</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -33061,7 +33061,7 @@
         <v>46036.37797453703</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -33118,7 +33118,7 @@
         <v>45196.58278935185</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -33175,7 +33175,7 @@
         <v>45104.40493055555</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -33237,7 +33237,7 @@
         <v>46037.42600694444</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33294,7 +33294,7 @@
         <v>46037.61490740741</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33351,7 +33351,7 @@
         <v>46037.84224537037</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33408,7 +33408,7 @@
         <v>45593.32924768519</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -33465,7 +33465,7 @@
         <v>45205</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -33522,7 +33522,7 @@
         <v>45203</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -33579,7 +33579,7 @@
         <v>45999.66488425926</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33636,7 +33636,7 @@
         <v>45999.65799768519</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33693,7 +33693,7 @@
         <v>45708.67253472222</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33750,7 +33750,7 @@
         <v>45756.35998842592</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33812,7 +33812,7 @@
         <v>45524.61752314815</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33869,7 +33869,7 @@
         <v>44804.61636574074</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33926,7 +33926,7 @@
         <v>44363</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33983,7 +33983,7 @@
         <v>45239.36509259259</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -34040,7 +34040,7 @@
         <v>45278</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -34097,7 +34097,7 @@
         <v>45519.67503472222</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -34154,7 +34154,7 @@
         <v>46041.41971064815</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -34211,7 +34211,7 @@
         <v>46038</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -34268,7 +34268,7 @@
         <v>46036</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -34325,7 +34325,7 @@
         <v>46041.42416666666</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -34382,7 +34382,7 @@
         <v>45463</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -34439,7 +34439,7 @@
         <v>46024.62364583334</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -34496,7 +34496,7 @@
         <v>46038.39023148148</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -34553,7 +34553,7 @@
         <v>46041</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -34610,7 +34610,7 @@
         <v>46043.41603009259</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -34667,7 +34667,7 @@
         <v>45222</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34724,7 +34724,7 @@
         <v>45404.67442129629</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34781,7 +34781,7 @@
         <v>46043.61261574074</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34838,7 +34838,7 @@
         <v>46001.5266087963</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34895,7 +34895,7 @@
         <v>45519.644375</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34952,7 +34952,7 @@
         <v>46042.475625</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -35009,7 +35009,7 @@
         <v>46043</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -35066,7 +35066,7 @@
         <v>46043.64811342592</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -35128,7 +35128,7 @@
         <v>45145.36853009259</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -35185,7 +35185,7 @@
         <v>46001.58590277778</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -35242,7 +35242,7 @@
         <v>46029</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -35304,7 +35304,7 @@
         <v>46044.6533449074</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -35361,7 +35361,7 @@
         <v>46044.741875</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -35418,7 +35418,7 @@
         <v>45574.51053240741</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -35475,7 +35475,7 @@
         <v>44915.62751157407</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -35532,7 +35532,7 @@
         <v>46002.37662037037</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -35589,7 +35589,7 @@
         <v>46002.39755787037</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -35646,7 +35646,7 @@
         <v>46002.39347222223</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -35703,7 +35703,7 @@
         <v>45582.44894675926</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35760,7 +35760,7 @@
         <v>46003.63954861111</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35817,7 +35817,7 @@
         <v>44482</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35874,7 +35874,7 @@
         <v>45210</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35931,7 +35931,7 @@
         <v>45153</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35988,7 +35988,7 @@
         <v>44368</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -36045,7 +36045,7 @@
         <v>44515</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -36102,7 +36102,7 @@
         <v>46048.51449074074</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -36159,7 +36159,7 @@
         <v>46006.3365625</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -36216,7 +36216,7 @@
         <v>46049.57591435185</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -36278,7 +36278,7 @@
         <v>46006.33462962963</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -36335,7 +36335,7 @@
         <v>46048.70013888889</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -36392,7 +36392,7 @@
         <v>45632.46545138889</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -36449,7 +36449,7 @@
         <v>46007.66275462963</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -36506,7 +36506,7 @@
         <v>46030.46954861111</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -36563,7 +36563,7 @@
         <v>46051.51640046296</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -36620,7 +36620,7 @@
         <v>45756.36844907407</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -36682,7 +36682,7 @@
         <v>45057</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36744,7 +36744,7 @@
         <v>46009.45792824074</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36801,7 +36801,7 @@
         <v>46009.46129629629</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36858,7 +36858,7 @@
         <v>46029</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36920,7 +36920,7 @@
         <v>44389</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36977,7 +36977,7 @@
         <v>46009.60133101852</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -37034,7 +37034,7 @@
         <v>46051.63380787037</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -37091,7 +37091,7 @@
         <v>45036.46804398148</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -37148,7 +37148,7 @@
         <v>46008.33967592593</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -37205,7 +37205,7 @@
         <v>45188</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -37262,7 +37262,7 @@
         <v>45408.41166666667</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -37319,7 +37319,7 @@
         <v>45533</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -37376,7 +37376,7 @@
         <v>44581</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -37433,7 +37433,7 @@
         <v>46008.72493055555</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -37490,7 +37490,7 @@
         <v>45628.49931712963</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -37547,7 +37547,7 @@
         <v>46008.35011574074</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -37604,7 +37604,7 @@
         <v>45196</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -37661,7 +37661,7 @@
         <v>46008.34541666666</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37718,7 +37718,7 @@
         <v>46030</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37775,7 +37775,7 @@
         <v>45775.63119212963</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37832,7 +37832,7 @@
         <v>46051.78189814815</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37889,7 +37889,7 @@
         <v>45607.65123842593</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37946,7 +37946,7 @@
         <v>46052.33809027778</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -38003,7 +38003,7 @@
         <v>45807</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -38060,7 +38060,7 @@
         <v>45807</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -38117,7 +38117,7 @@
         <v>45807</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -38174,7 +38174,7 @@
         <v>45807</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -38231,7 +38231,7 @@
         <v>46013.36556712963</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -38293,7 +38293,7 @@
         <v>46055.36231481482</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -38355,7 +38355,7 @@
         <v>46052.50533564815</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -38412,7 +38412,7 @@
         <v>46052.47197916666</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -38469,7 +38469,7 @@
         <v>46013.36268518519</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -38531,7 +38531,7 @@
         <v>46048.50627314814</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -38588,7 +38588,7 @@
         <v>46013.42269675926</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -38650,7 +38650,7 @@
         <v>44699</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38707,7 +38707,7 @@
         <v>46057.56855324074</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38764,7 +38764,7 @@
         <v>46057.35288194445</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38821,7 +38821,7 @@
         <v>46057.58777777778</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38878,7 +38878,7 @@
         <v>45954.65564814815</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38935,7 +38935,7 @@
         <v>46013.96362268519</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38992,7 +38992,7 @@
         <v>46014.54496527778</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -39049,7 +39049,7 @@
         <v>46057.47490740741</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -39106,7 +39106,7 @@
         <v>46056.6352662037</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -39163,7 +39163,7 @@
         <v>46056.49622685185</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -39220,7 +39220,7 @@
         <v>46056.60297453704</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -39277,7 +39277,7 @@
         <v>46056.66945601852</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -39334,7 +39334,7 @@
         <v>46014.539375</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -39391,7 +39391,7 @@
         <v>46057.53868055555</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -39448,7 +39448,7 @@
         <v>46057.59153935185</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -39505,7 +39505,7 @@
         <v>46056.4644675926</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -39562,7 +39562,7 @@
         <v>45162.68787037037</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -39619,7 +39619,7 @@
         <v>45279.43570601852</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -39676,7 +39676,7 @@
         <v>46041</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -39733,7 +39733,7 @@
         <v>46059.42018518518</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39790,7 +39790,7 @@
         <v>44945.32997685186</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39847,7 +39847,7 @@
         <v>45553</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39904,7 +39904,7 @@
         <v>46027</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39961,7 +39961,7 @@
         <v>46050.59820601852</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -40018,7 +40018,7 @@
         <v>45184.58199074074</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -40080,7 +40080,7 @@
         <v>46059.46224537037</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -40137,7 +40137,7 @@
         <v>45582.45226851852</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -40194,7 +40194,7 @@
         <v>45582.45449074074</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -40251,7 +40251,7 @@
         <v>44957</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -40308,7 +40308,7 @@
         <v>44957</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -40370,7 +40370,7 @@
         <v>45203</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -40427,7 +40427,7 @@
         <v>45105.54791666667</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -40484,7 +40484,7 @@
         <v>45425.45568287037</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -40541,7 +40541,7 @@
         <v>45588.59290509259</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -40598,7 +40598,7 @@
         <v>45147.3934837963</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -40655,7 +40655,7 @@
         <v>45253.43202546296</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -40712,7 +40712,7 @@
         <v>44887.43714120371</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40774,7 +40774,7 @@
         <v>45562.33179398148</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40831,7 +40831,7 @@
         <v>45642.64803240741</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40893,7 +40893,7 @@
         <v>45264</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40955,7 +40955,7 @@
         <v>45173</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -41017,7 +41017,7 @@
         <v>45691.69671296296</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -41074,7 +41074,7 @@
         <v>45573</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -41131,7 +41131,7 @@
         <v>45761.60459490741</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -41193,7 +41193,7 @@
         <v>45247</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -41250,7 +41250,7 @@
         <v>44725</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -41307,7 +41307,7 @@
         <v>45621.45765046297</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -41364,7 +41364,7 @@
         <v>44382.57981481482</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -41421,7 +41421,7 @@
         <v>45567.33655092592</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -41478,7 +41478,7 @@
         <v>45415.58502314815</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -41535,7 +41535,7 @@
         <v>45210</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -41592,7 +41592,7 @@
         <v>45105.54270833333</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -41649,7 +41649,7 @@
         <v>44266</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -41706,7 +41706,7 @@
         <v>44347</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41763,7 +41763,7 @@
         <v>45499.51721064815</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41820,7 +41820,7 @@
         <v>45420.68172453704</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41877,7 +41877,7 @@
         <v>45554.6687037037</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41934,7 +41934,7 @@
         <v>45174.34662037037</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41991,7 +41991,7 @@
         <v>44838</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -42048,7 +42048,7 @@
         <v>45188</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -42105,7 +42105,7 @@
         <v>45636</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -42167,7 +42167,7 @@
         <v>45695.54651620371</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -42224,7 +42224,7 @@
         <v>45334.38981481481</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -42281,7 +42281,7 @@
         <v>45553.44084490741</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -42338,7 +42338,7 @@
         <v>45608.69395833334</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -42395,7 +42395,7 @@
         <v>44838.46721064814</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -42452,7 +42452,7 @@
         <v>44642.65418981481</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -42509,7 +42509,7 @@
         <v>45756</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -42566,7 +42566,7 @@
         <v>45524.62600694445</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -42623,7 +42623,7 @@
         <v>45544</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -42680,7 +42680,7 @@
         <v>45343.95445601852</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42737,7 +42737,7 @@
         <v>45072.34796296297</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42794,7 +42794,7 @@
         <v>45260.5284375</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42851,7 +42851,7 @@
         <v>45350</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42908,7 +42908,7 @@
         <v>45754.36738425926</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42965,7 +42965,7 @@
         <v>44244</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -43022,7 +43022,7 @@
         <v>45215.43879629629</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -43079,7 +43079,7 @@
         <v>45476.68435185185</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -43136,7 +43136,7 @@
         <v>45476.68616898148</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -43193,7 +43193,7 @@
         <v>45385.55375</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -43250,7 +43250,7 @@
         <v>45589.76975694444</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -43307,7 +43307,7 @@
         <v>45252.48592592592</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -43364,7 +43364,7 @@
         <v>45098</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -43421,7 +43421,7 @@
         <v>45237.60775462963</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -43483,7 +43483,7 @@
         <v>45460.70204861111</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -43540,7 +43540,7 @@
         <v>44957</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -43597,7 +43597,7 @@
         <v>45567.35359953704</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -43654,7 +43654,7 @@
         <v>45363.40368055556</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43711,7 +43711,7 @@
         <v>45440.59936342593</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43768,7 +43768,7 @@
         <v>45481.42923611111</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43825,7 +43825,7 @@
         <v>45490.33387731481</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43882,7 +43882,7 @@
         <v>45632.46821759259</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43939,7 +43939,7 @@
         <v>45576.54820601852</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -44001,7 +44001,7 @@
         <v>45632.34984953704</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -44058,7 +44058,7 @@
         <v>44953</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -44115,7 +44115,7 @@
         <v>44953.44965277778</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -44172,7 +44172,7 @@
         <v>44438</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -44229,7 +44229,7 @@
         <v>45631.71893518518</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -44286,7 +44286,7 @@
         <v>44949.57856481482</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -44343,7 +44343,7 @@
         <v>45744.50722222222</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -44400,7 +44400,7 @@
         <v>44819.66083333334</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -44457,7 +44457,7 @@
         <v>45272</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -44514,7 +44514,7 @@
         <v>45376.61019675926</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -44571,7 +44571,7 @@
         <v>44937</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -44628,7 +44628,7 @@
         <v>44806</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44685,7 +44685,7 @@
         <v>45180</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44747,7 +44747,7 @@
         <v>44533</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44804,7 +44804,7 @@
         <v>45279</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44861,7 +44861,7 @@
         <v>45540.85054398148</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44918,7 +44918,7 @@
         <v>45743.55756944444</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44975,7 +44975,7 @@
         <v>45229</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -45032,7 +45032,7 @@
         <v>45615.49371527778</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -45089,7 +45089,7 @@
         <v>45008.64575231481</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -45146,7 +45146,7 @@
         <v>45628.41587962963</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -45203,7 +45203,7 @@
         <v>45761</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -45265,7 +45265,7 @@
         <v>45761.59523148148</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -45327,7 +45327,7 @@
         <v>44589</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -45384,7 +45384,7 @@
         <v>45194</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -45441,7 +45441,7 @@
         <v>45576.43782407408</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -45498,7 +45498,7 @@
         <v>45756.37201388889</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -45560,7 +45560,7 @@
         <v>45162</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -45617,7 +45617,7 @@
         <v>45625.55440972222</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45674,7 +45674,7 @@
         <v>45691.36403935185</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45731,7 +45731,7 @@
         <v>45259</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45788,7 +45788,7 @@
         <v>45756.36403935185</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45850,7 +45850,7 @@
         <v>45460.69545138889</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45907,7 +45907,7 @@
         <v>45756.56131944444</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45964,7 +45964,7 @@
         <v>44953</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -46021,7 +46021,7 @@
         <v>45188</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -46078,7 +46078,7 @@
         <v>45448.38677083333</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -46135,7 +46135,7 @@
         <v>44694.62913194444</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -46192,7 +46192,7 @@
         <v>44851</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -46249,7 +46249,7 @@
         <v>45334</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -46311,7 +46311,7 @@
         <v>45520</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -46368,7 +46368,7 @@
         <v>45584.42887731481</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -46425,7 +46425,7 @@
         <v>45553.47538194444</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -46482,7 +46482,7 @@
         <v>45520.48304398148</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -46539,7 +46539,7 @@
         <v>45439</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -46601,7 +46601,7 @@
         <v>45561.3771412037</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -46658,7 +46658,7 @@
         <v>45607.57142361111</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46715,7 +46715,7 @@
         <v>45516.40261574074</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46772,7 +46772,7 @@
         <v>44244</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46829,7 +46829,7 @@
         <v>45090</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46886,7 +46886,7 @@
         <v>45554.88538194444</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46943,7 +46943,7 @@
         <v>45572.48407407408</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -47000,7 +47000,7 @@
         <v>45607</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -47057,7 +47057,7 @@
         <v>45567.3515162037</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -47114,7 +47114,7 @@
         <v>45572.38429398148</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -47171,7 +47171,7 @@
         <v>45741.4050462963</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -47228,7 +47228,7 @@
         <v>45741</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -47285,7 +47285,7 @@
         <v>45410.78502314815</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -47342,7 +47342,7 @@
         <v>45264.43802083333</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -47404,7 +47404,7 @@
         <v>45264</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -47466,7 +47466,7 @@
         <v>45551.45322916667</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -47523,7 +47523,7 @@
         <v>45618</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -47580,7 +47580,7 @@
         <v>45453.44091435185</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -47637,7 +47637,7 @@
         <v>45408.46980324074</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -47694,7 +47694,7 @@
         <v>45784.45060185185</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -47751,7 +47751,7 @@
         <v>45784.44481481481</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -47808,7 +47808,7 @@
         <v>45784.45273148148</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -47865,7 +47865,7 @@
         <v>45786.45721064815</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -47927,7 +47927,7 @@
         <v>45786.54940972223</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -47989,7 +47989,7 @@
         <v>45791.70299768518</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -48046,7 +48046,7 @@
         <v>45625</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -48103,7 +48103,7 @@
         <v>45625</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -48160,7 +48160,7 @@
         <v>45785</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -48217,7 +48217,7 @@
         <v>45638</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -48274,7 +48274,7 @@
         <v>45725</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -48331,7 +48331,7 @@
         <v>45625</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -48388,7 +48388,7 @@
         <v>44720</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -48445,7 +48445,7 @@
         <v>45232.53052083333</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -48502,7 +48502,7 @@
         <v>45791</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -48559,7 +48559,7 @@
         <v>45272</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -48616,7 +48616,7 @@
         <v>45796.63137731481</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -48673,7 +48673,7 @@
         <v>45797.40260416667</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -48730,7 +48730,7 @@
         <v>45715.45341435185</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -48787,7 +48787,7 @@
         <v>44796.60479166666</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -48844,7 +48844,7 @@
         <v>45049</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -48901,7 +48901,7 @@
         <v>45797.37607638889</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -48958,7 +48958,7 @@
         <v>45797.45581018519</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -49015,7 +49015,7 @@
         <v>45769</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>

--- a/Översikt MORA.xlsx
+++ b/Översikt MORA.xlsx
@@ -575,7 +575,7 @@
         <v>45737</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         <v>45855</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>45118</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -953,7 +953,7 @@
         <v>45763</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1078,7 +1078,7 @@
         <v>45826</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1198,7 +1198,7 @@
         <v>45944.29658564815</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         <v>45932.43633101852</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         <v>45666</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1533,7 +1533,7 @@
         <v>45982.44465277778</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>45919</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1751,7 +1751,7 @@
         <v>45967.57792824074</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1856,7 +1856,7 @@
         <v>45911</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>45853</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2071,7 +2071,7 @@
         <v>45749</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2175,7 +2175,7 @@
         <v>45775</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2279,7 +2279,7 @@
         <v>45855</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2387,7 +2387,7 @@
         <v>45590</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
         <v>45625</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
         <v>45792</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         <v>45855</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>45916.39680555555</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
         <v>45217.60914351852</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>45833</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3102,7 +3102,7 @@
         <v>44958.60337962963</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>45533.45853009259</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3298,7 +3298,7 @@
         <v>45848</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3400,7 +3400,7 @@
         <v>45978.62241898148</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>45826</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3592,7 +3592,7 @@
         <v>45895.42209490741</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3689,7 +3689,7 @@
         <v>45981.41530092592</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3782,7 +3782,7 @@
         <v>45653.49774305556</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         <v>45902.60008101852</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3976,7 +3976,7 @@
         <v>45061.58952546296</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4074,7 +4074,7 @@
         <v>45855</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4176,7 +4176,7 @@
         <v>45642</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>45890.35232638889</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4372,7 +4372,7 @@
         <v>45925.6530324074</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4468,7 +4468,7 @@
         <v>45832</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4564,7 +4564,7 @@
         <v>46036</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4660,7 +4660,7 @@
         <v>45841.40309027778</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4756,7 +4756,7 @@
         <v>45825.3303125</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4851,7 +4851,7 @@
         <v>45824.59025462963</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         <v>45264</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -5046,7 +5046,7 @@
         <v>45987.36070601852</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5146,7 +5146,7 @@
         <v>45848</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5240,7 +5240,7 @@
         <v>45982.72690972222</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5339,7 +5339,7 @@
         <v>46006.48664351852</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>45525</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5523,7 +5523,7 @@
         <v>45712.57467592593</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5617,7 +5617,7 @@
         <v>45959.6131712963</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5710,7 +5710,7 @@
         <v>44343</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5807,7 +5807,7 @@
         <v>45833</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         <v>45985.64645833334</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>45855</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>45890.3469212963</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6183,7 +6183,7 @@
         <v>45890.35881944445</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6275,7 +6275,7 @@
         <v>45835.59140046296</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6367,7 +6367,7 @@
         <v>45743.36951388889</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         <v>45848</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6555,7 +6555,7 @@
         <v>46002.64605324074</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         <v>45393.63902777778</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6739,7 +6739,7 @@
         <v>45418.39261574074</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6827,7 +6827,7 @@
         <v>45824.60537037037</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>45890.35545138889</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -7005,7 +7005,7 @@
         <v>45939.67418981482</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -7096,7 +7096,7 @@
         <v>46008.34148148148</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7187,7 +7187,7 @@
         <v>46067.50817129629</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7278,7 +7278,7 @@
         <v>45791.41832175926</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7373,7 +7373,7 @@
         <v>45177.49715277777</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7464,7 +7464,7 @@
         <v>45852.45686342593</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7550,7 +7550,7 @@
         <v>45159.32799768518</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7636,7 +7636,7 @@
         <v>46037.84224537037</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7726,7 +7726,7 @@
         <v>45406.41648148148</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7816,7 +7816,7 @@
         <v>45665.58001157407</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7901,7 +7901,7 @@
         <v>44529</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7990,7 +7990,7 @@
         <v>44897</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -8075,7 +8075,7 @@
         <v>45077</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8160,7 +8160,7 @@
         <v>46006.38961805555</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -8245,7 +8245,7 @@
         <v>45576</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>44364</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8424,7 +8424,7 @@
         <v>45007</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8513,7 +8513,7 @@
         <v>45775.62283564815</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8598,7 +8598,7 @@
         <v>44959.55116898148</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>45471</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8773,7 +8773,7 @@
         <v>44410</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8830,7 +8830,7 @@
         <v>44553</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8887,7 +8887,7 @@
         <v>44517.934375</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8944,7 +8944,7 @@
         <v>44427</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -9001,7 +9001,7 @@
         <v>44796</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -9063,7 +9063,7 @@
         <v>44546.5862037037</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9120,7 +9120,7 @@
         <v>44813</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9177,7 +9177,7 @@
         <v>44515</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9234,7 +9234,7 @@
         <v>44832.31839120371</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9291,7 +9291,7 @@
         <v>44470.63695601852</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9348,7 +9348,7 @@
         <v>44362.38358796296</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9405,7 +9405,7 @@
         <v>44838</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9467,7 +9467,7 @@
         <v>44459.68884259259</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9524,7 +9524,7 @@
         <v>44601</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9581,7 +9581,7 @@
         <v>44705</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9638,7 +9638,7 @@
         <v>44545</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9700,7 +9700,7 @@
         <v>44421</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9757,7 +9757,7 @@
         <v>44455</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9814,7 +9814,7 @@
         <v>44295</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9871,7 +9871,7 @@
         <v>44421</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9928,7 +9928,7 @@
         <v>44516.42728009259</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9985,7 +9985,7 @@
         <v>44417.43135416666</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10042,7 +10042,7 @@
         <v>44432</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10099,7 +10099,7 @@
         <v>44747</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10161,7 +10161,7 @@
         <v>44365.59125</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10218,7 +10218,7 @@
         <v>44301</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10275,7 +10275,7 @@
         <v>44365.58731481482</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10332,7 +10332,7 @@
         <v>44365</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10389,7 +10389,7 @@
         <v>44848</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10446,7 +10446,7 @@
         <v>44844.47778935185</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10508,7 +10508,7 @@
         <v>44369.7362037037</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10565,7 +10565,7 @@
         <v>44673</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10622,7 +10622,7 @@
         <v>44425</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10679,7 +10679,7 @@
         <v>44455</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10736,7 +10736,7 @@
         <v>44845.35591435185</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10793,7 +10793,7 @@
         <v>44788.32601851852</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10850,7 +10850,7 @@
         <v>44489</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10912,7 +10912,7 @@
         <v>44523.35982638889</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
         <v>44423.65152777778</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11031,7 +11031,7 @@
         <v>44609.62314814814</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11088,7 +11088,7 @@
         <v>44421</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11145,7 +11145,7 @@
         <v>44578.66320601852</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11202,7 +11202,7 @@
         <v>44389.62159722222</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11259,7 +11259,7 @@
         <v>44658</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11316,7 +11316,7 @@
         <v>44546.60960648148</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11373,7 +11373,7 @@
         <v>44530</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11430,7 +11430,7 @@
         <v>44466</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11487,7 +11487,7 @@
         <v>44742.58386574074</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11549,7 +11549,7 @@
         <v>44517.92888888889</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11606,7 +11606,7 @@
         <v>44488</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>44480.57549768518</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
         <v>44749.56221064815</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11787,7 +11787,7 @@
         <v>44782</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11849,7 +11849,7 @@
         <v>44589.65528935185</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11906,7 +11906,7 @@
         <v>44543</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11963,7 +11963,7 @@
         <v>44301</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -12020,7 +12020,7 @@
         <v>44680.4265162037</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -12077,7 +12077,7 @@
         <v>44489.94246527777</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -12134,7 +12134,7 @@
         <v>44858.66387731482</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -12191,7 +12191,7 @@
         <v>44796.60181712963</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12248,7 +12248,7 @@
         <v>44810.63806712963</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12305,7 +12305,7 @@
         <v>44522</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12362,7 +12362,7 @@
         <v>44613</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>44656.37616898148</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>44326</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12533,7 +12533,7 @@
         <v>44726</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12590,7 +12590,7 @@
         <v>45530</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12647,7 +12647,7 @@
         <v>45351.41524305556</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12704,7 +12704,7 @@
         <v>45351.46583333334</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12761,7 +12761,7 @@
         <v>45533</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12818,7 +12818,7 @@
         <v>45692.68561342593</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>44874</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12937,7 +12937,7 @@
         <v>45775.74009259259</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12994,7 +12994,7 @@
         <v>45756.37520833333</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -13056,7 +13056,7 @@
         <v>45590.60216435185</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -13113,7 +13113,7 @@
         <v>45637.34074074074</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -13175,7 +13175,7 @@
         <v>44630.62788194444</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13232,7 +13232,7 @@
         <v>45572.38476851852</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13289,7 +13289,7 @@
         <v>45747.48371527778</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13346,7 +13346,7 @@
         <v>45642.55645833333</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13403,7 +13403,7 @@
         <v>45264.65987268519</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13460,7 +13460,7 @@
         <v>45510.40587962963</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13517,7 +13517,7 @@
         <v>45167</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13574,7 +13574,7 @@
         <v>45743</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13631,7 +13631,7 @@
         <v>45568.64337962963</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13688,7 +13688,7 @@
         <v>45730.59239583334</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13750,7 +13750,7 @@
         <v>45763.63166666667</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13807,7 +13807,7 @@
         <v>45622.65269675926</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13864,7 +13864,7 @@
         <v>45576</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13921,7 +13921,7 @@
         <v>45544</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13978,7 +13978,7 @@
         <v>44531</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -14035,7 +14035,7 @@
         <v>45602.7022337963</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -14092,7 +14092,7 @@
         <v>44768</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -14149,7 +14149,7 @@
         <v>44852</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14206,7 +14206,7 @@
         <v>45401.4194212963</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14263,7 +14263,7 @@
         <v>44896</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14320,7 +14320,7 @@
         <v>45531.34050925926</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14377,7 +14377,7 @@
         <v>44435</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14434,7 +14434,7 @@
         <v>45695.42762731481</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         <v>44796</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14548,7 +14548,7 @@
         <v>44810.64164351852</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14610,7 +14610,7 @@
         <v>45184.53412037037</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14672,7 +14672,7 @@
         <v>44859.52145833334</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14729,7 +14729,7 @@
         <v>45280</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14786,7 +14786,7 @@
         <v>45512.70077546296</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14848,7 +14848,7 @@
         <v>45412</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14905,7 +14905,7 @@
         <v>45691.35427083333</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14962,7 +14962,7 @@
         <v>45749.58428240741</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -15019,7 +15019,7 @@
         <v>45240</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -15076,7 +15076,7 @@
         <v>45260.46609953704</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -15133,7 +15133,7 @@
         <v>44959.54355324074</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -15195,7 +15195,7 @@
         <v>44898</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15252,7 +15252,7 @@
         <v>45219</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15309,7 +15309,7 @@
         <v>44482</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15366,7 +15366,7 @@
         <v>45264</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15428,7 +15428,7 @@
         <v>44995</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15485,7 +15485,7 @@
         <v>45090.68675925926</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15542,7 +15542,7 @@
         <v>45194.59378472222</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15599,7 +15599,7 @@
         <v>45450</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15661,7 +15661,7 @@
         <v>45222</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15718,7 +15718,7 @@
         <v>45603.58619212963</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15775,7 +15775,7 @@
         <v>45253</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15832,7 +15832,7 @@
         <v>45153</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15889,7 +15889,7 @@
         <v>45530.71158564815</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15946,7 +15946,7 @@
         <v>45254</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -16003,7 +16003,7 @@
         <v>45757.52033564815</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -16060,7 +16060,7 @@
         <v>45260.46438657407</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -16117,7 +16117,7 @@
         <v>44337</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16174,7 +16174,7 @@
         <v>44518.39234953704</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16231,7 +16231,7 @@
         <v>45439.51907407407</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16293,7 +16293,7 @@
         <v>44831.81482638889</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16350,7 +16350,7 @@
         <v>45645.74694444444</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16407,7 +16407,7 @@
         <v>45758.62951388889</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16464,7 +16464,7 @@
         <v>45132.6291550926</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16526,7 +16526,7 @@
         <v>45645.62282407407</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16583,7 +16583,7 @@
         <v>45159.59186342593</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16640,7 +16640,7 @@
         <v>45576</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16697,7 +16697,7 @@
         <v>45541.61094907407</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16754,7 +16754,7 @@
         <v>45104</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16811,7 +16811,7 @@
         <v>45019.71342592593</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16868,7 +16868,7 @@
         <v>45694.59288194445</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16925,7 +16925,7 @@
         <v>45821.50900462963</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16982,7 +16982,7 @@
         <v>45232.63217592592</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -17039,7 +17039,7 @@
         <v>45821.34855324074</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -17101,7 +17101,7 @@
         <v>45820.67107638889</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -17158,7 +17158,7 @@
         <v>45820.67221064815</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17215,7 +17215,7 @@
         <v>45820.66846064815</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17272,7 +17272,7 @@
         <v>44484</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17329,7 +17329,7 @@
         <v>45820.40034722222</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17391,7 +17391,7 @@
         <v>45757.34350694445</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17448,7 +17448,7 @@
         <v>45825.34322916667</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17505,7 +17505,7 @@
         <v>45824.65862268519</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17562,7 +17562,7 @@
         <v>45090.62493055555</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17619,7 +17619,7 @@
         <v>45824.64524305556</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17676,7 +17676,7 @@
         <v>45889.76200231481</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17738,7 +17738,7 @@
         <v>45891</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17795,7 +17795,7 @@
         <v>45279.46009259259</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17852,7 +17852,7 @@
         <v>45891</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17909,7 +17909,7 @@
         <v>45826.6575</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17966,7 +17966,7 @@
         <v>45895.67356481482</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -18023,7 +18023,7 @@
         <v>45433.5741087963</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -18080,7 +18080,7 @@
         <v>45453.43695601852</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -18137,7 +18137,7 @@
         <v>45827.33116898148</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18194,7 +18194,7 @@
         <v>45826.35716435185</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18251,7 +18251,7 @@
         <v>45826</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18308,7 +18308,7 @@
         <v>45800</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18365,7 +18365,7 @@
         <v>44313.54942129629</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18422,7 +18422,7 @@
         <v>45894.57016203704</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18479,7 +18479,7 @@
         <v>45894.57202546296</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18536,7 +18536,7 @@
         <v>44617.48909722222</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18593,7 +18593,7 @@
         <v>45147.33251157407</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18650,7 +18650,7 @@
         <v>45831.24760416667</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18707,7 +18707,7 @@
         <v>45831.25519675926</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18764,7 +18764,7 @@
         <v>45894.57918981482</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18821,7 +18821,7 @@
         <v>45832.48185185185</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18883,7 +18883,7 @@
         <v>45260.52684027778</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18940,7 +18940,7 @@
         <v>45232.64195601852</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18997,7 +18997,7 @@
         <v>45896.64631944444</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -19059,7 +19059,7 @@
         <v>45897.46659722222</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19116,7 +19116,7 @@
         <v>45896.64715277778</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19173,7 +19173,7 @@
         <v>45799</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19230,7 +19230,7 @@
         <v>44956</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19287,7 +19287,7 @@
         <v>45898.5738425926</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19344,7 +19344,7 @@
         <v>45898.55165509259</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19401,7 +19401,7 @@
         <v>45463</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19458,7 +19458,7 @@
         <v>45831.92416666666</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19515,7 +19515,7 @@
         <v>45831.93105324074</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19572,7 +19572,7 @@
         <v>45901.68267361111</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19634,7 +19634,7 @@
         <v>44903.6605324074</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19691,7 +19691,7 @@
         <v>44581</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19748,7 +19748,7 @@
         <v>45798.59290509259</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19810,7 +19810,7 @@
         <v>45226.49950231481</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19867,7 +19867,7 @@
         <v>45834.60209490741</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19924,7 +19924,7 @@
         <v>45834.60525462963</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19981,7 +19981,7 @@
         <v>45798.63875</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>45420</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>45902.58721064815</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20157,7 +20157,7 @@
         <v>45834.59822916667</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20214,7 +20214,7 @@
         <v>45259.57872685185</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20271,7 +20271,7 @@
         <v>45646.74988425926</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20328,7 +20328,7 @@
         <v>45902.93693287037</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20385,7 +20385,7 @@
         <v>45903</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20442,7 +20442,7 @@
         <v>45259.50996527778</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20499,7 +20499,7 @@
         <v>44942.57987268519</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20556,7 +20556,7 @@
         <v>45839.57559027777</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20613,7 +20613,7 @@
         <v>45904.32134259259</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20670,7 +20670,7 @@
         <v>45611.63849537037</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20727,7 +20727,7 @@
         <v>44755.59188657408</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20784,7 +20784,7 @@
         <v>45096</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20841,7 +20841,7 @@
         <v>45624.65785879629</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20898,7 +20898,7 @@
         <v>45908.56168981481</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20955,7 +20955,7 @@
         <v>45909.34799768519</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -21017,7 +21017,7 @@
         <v>45909.36631944445</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -21074,7 +21074,7 @@
         <v>45013</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21131,7 +21131,7 @@
         <v>45909.3578125</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
         <v>45908.57753472222</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21245,7 +21245,7 @@
         <v>45841</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21302,7 +21302,7 @@
         <v>45910.34953703704</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21359,7 +21359,7 @@
         <v>45629</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21421,7 +21421,7 @@
         <v>45911.63363425926</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21478,7 +21478,7 @@
         <v>45667.46648148148</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21535,7 +21535,7 @@
         <v>45910.34449074074</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21592,7 +21592,7 @@
         <v>45715.59936342593</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21649,7 +21649,7 @@
         <v>45911.48967592593</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21706,7 +21706,7 @@
         <v>45299</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
         <v>45845.60520833333</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21820,7 +21820,7 @@
         <v>45775.63459490741</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21877,7 +21877,7 @@
         <v>45730.57429398148</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21939,7 +21939,7 @@
         <v>45844.58890046296</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21996,7 +21996,7 @@
         <v>45847.38469907407</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -22053,7 +22053,7 @@
         <v>45912.58710648148</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -22110,7 +22110,7 @@
         <v>45615.47137731482</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22167,7 +22167,7 @@
         <v>45846</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22224,7 +22224,7 @@
         <v>45916.48513888889</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22286,7 +22286,7 @@
         <v>45849.57297453703</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22348,7 +22348,7 @@
         <v>45764.35269675926</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22405,7 +22405,7 @@
         <v>45917.466875</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22462,7 +22462,7 @@
         <v>45617.83969907407</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22519,7 +22519,7 @@
         <v>45919.53329861111</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22576,7 +22576,7 @@
         <v>45852.60936342592</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22638,7 +22638,7 @@
         <v>45919.54811342592</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22695,7 +22695,7 @@
         <v>45855.35989583333</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22752,7 +22752,7 @@
         <v>45358.63265046296</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22809,7 +22809,7 @@
         <v>44907</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         <v>45859.35384259259</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22923,7 +22923,7 @@
         <v>45245.64877314815</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22980,7 +22980,7 @@
         <v>45860.471875</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -23037,7 +23037,7 @@
         <v>45859</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23099,7 +23099,7 @@
         <v>45184</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23161,7 +23161,7 @@
         <v>44781.5350925926</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23218,7 +23218,7 @@
         <v>45859</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23280,7 +23280,7 @@
         <v>45531.38372685185</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23337,7 +23337,7 @@
         <v>45387.5900925926</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23394,7 +23394,7 @@
         <v>45859</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23456,7 +23456,7 @@
         <v>45866.34385416667</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
         <v>45924.5253125</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23570,7 +23570,7 @@
         <v>45924.52871527777</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23627,7 +23627,7 @@
         <v>45750</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23684,7 +23684,7 @@
         <v>45925</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23741,7 +23741,7 @@
         <v>45869</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23798,7 +23798,7 @@
         <v>45056</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23855,7 +23855,7 @@
         <v>45873.57319444444</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23912,7 +23912,7 @@
         <v>45926.3312962963</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23969,7 +23969,7 @@
         <v>45477.75744212963</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -24026,7 +24026,7 @@
         <v>45077</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -24083,7 +24083,7 @@
         <v>45926.34195601852</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24140,7 +24140,7 @@
         <v>45929</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24197,7 +24197,7 @@
         <v>45929.61931712963</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24254,7 +24254,7 @@
         <v>45929.6365162037</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24311,7 +24311,7 @@
         <v>45252</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24368,7 +24368,7 @@
         <v>45874.38655092593</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24425,7 +24425,7 @@
         <v>45072</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24482,7 +24482,7 @@
         <v>45930.61896990741</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24539,7 +24539,7 @@
         <v>45931.69100694444</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24596,7 +24596,7 @@
         <v>45931.70715277778</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24653,7 +24653,7 @@
         <v>45875.39822916667</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24710,7 +24710,7 @@
         <v>45933.71648148148</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24767,7 +24767,7 @@
         <v>45932.42298611111</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24824,7 +24824,7 @@
         <v>45876.46681712963</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24881,7 +24881,7 @@
         <v>44847.518125</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24938,7 +24938,7 @@
         <v>44830</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24995,7 +24995,7 @@
         <v>45933.71896990741</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -25052,7 +25052,7 @@
         <v>45931</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25109,7 +25109,7 @@
         <v>45881.48791666667</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25166,7 +25166,7 @@
         <v>45882.47625</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25223,7 +25223,7 @@
         <v>45931</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25280,7 +25280,7 @@
         <v>45614.61569444444</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25337,7 +25337,7 @@
         <v>45404.67387731482</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25394,7 +25394,7 @@
         <v>45937.50666666667</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25451,7 +25451,7 @@
         <v>45937.51315972222</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25508,7 +25508,7 @@
         <v>45882</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25565,7 +25565,7 @@
         <v>44900.65716435185</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25622,7 +25622,7 @@
         <v>45938.67662037037</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25684,7 +25684,7 @@
         <v>45755.46106481482</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25746,7 +25746,7 @@
         <v>45427.61516203704</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25803,7 +25803,7 @@
         <v>45645.76561342592</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25860,7 +25860,7 @@
         <v>44911</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25917,7 +25917,7 @@
         <v>45938.66932870371</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25979,7 +25979,7 @@
         <v>45939.49045138889</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -26036,7 +26036,7 @@
         <v>45940.44993055556</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26093,7 +26093,7 @@
         <v>44893</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26150,7 +26150,7 @@
         <v>45296</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26207,7 +26207,7 @@
         <v>45931</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26264,7 +26264,7 @@
         <v>45505.47716435185</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26326,7 +26326,7 @@
         <v>44497</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26383,7 +26383,7 @@
         <v>45401.40806712963</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26440,7 +26440,7 @@
         <v>45502.48047453703</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26497,7 +26497,7 @@
         <v>45187.62532407408</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26559,7 +26559,7 @@
         <v>44909.52385416667</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26616,7 +26616,7 @@
         <v>44644.70184027778</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26673,7 +26673,7 @@
         <v>45244</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26730,7 +26730,7 @@
         <v>44865</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26787,7 +26787,7 @@
         <v>45401.53798611111</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26844,7 +26844,7 @@
         <v>45748.39222222222</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26901,7 +26901,7 @@
         <v>45951.64653935185</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26958,7 +26958,7 @@
         <v>45198.61314814815</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -27015,7 +27015,7 @@
         <v>45761.59221064814</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -27077,7 +27077,7 @@
         <v>45952.69306712963</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27134,7 +27134,7 @@
         <v>45190.51887731482</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27191,7 +27191,7 @@
         <v>45957.44552083333</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27248,7 +27248,7 @@
         <v>45551.68347222222</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27305,7 +27305,7 @@
         <v>44897</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27362,7 +27362,7 @@
         <v>45471</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27419,7 +27419,7 @@
         <v>45497</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27476,7 +27476,7 @@
         <v>44600</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27533,7 +27533,7 @@
         <v>45646.37872685185</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27590,7 +27590,7 @@
         <v>45958.48611111111</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27652,7 +27652,7 @@
         <v>45958.48280092593</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27714,7 +27714,7 @@
         <v>45772.49640046297</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27771,7 +27771,7 @@
         <v>45474.37850694444</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27828,7 +27828,7 @@
         <v>45961.57019675926</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27885,7 +27885,7 @@
         <v>45960.40711805555</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27942,7 +27942,7 @@
         <v>45960.49972222222</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27999,7 +27999,7 @@
         <v>45551.44503472222</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -28056,7 +28056,7 @@
         <v>45460</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28113,7 +28113,7 @@
         <v>45960.39960648148</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28170,7 +28170,7 @@
         <v>45960.40662037037</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28227,7 +28227,7 @@
         <v>45960.43893518519</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28284,7 +28284,7 @@
         <v>45959</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28341,7 +28341,7 @@
         <v>45960.3921875</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28398,7 +28398,7 @@
         <v>44725.50280092593</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28460,7 +28460,7 @@
         <v>45965.61844907407</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28517,7 +28517,7 @@
         <v>44837</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28574,7 +28574,7 @@
         <v>45615.48465277778</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28631,7 +28631,7 @@
         <v>45965.62608796296</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28688,7 +28688,7 @@
         <v>45964.41665509259</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28745,7 +28745,7 @@
         <v>45965.4031712963</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28802,7 +28802,7 @@
         <v>45965.61686342592</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28859,7 +28859,7 @@
         <v>45722.47743055555</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28916,7 +28916,7 @@
         <v>45966.85649305556</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28978,7 +28978,7 @@
         <v>45966.76542824074</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -29035,7 +29035,7 @@
         <v>45771.47938657407</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -29092,7 +29092,7 @@
         <v>45188.51439814815</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29149,7 +29149,7 @@
         <v>45967.374375</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29206,7 +29206,7 @@
         <v>45967.38884259259</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29268,7 +29268,7 @@
         <v>45967.3700462963</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29325,7 +29325,7 @@
         <v>45967.37679398148</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29382,7 +29382,7 @@
         <v>45761.60189814815</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29444,7 +29444,7 @@
         <v>45968.40056712963</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29501,7 +29501,7 @@
         <v>45968.64847222222</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29558,7 +29558,7 @@
         <v>45968.8227662037</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29615,7 +29615,7 @@
         <v>45968.40621527778</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -29672,7 +29672,7 @@
         <v>45530.71334490741</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29729,7 +29729,7 @@
         <v>45502.55185185185</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29786,7 +29786,7 @@
         <v>45296.60353009259</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29843,7 +29843,7 @@
         <v>45299</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29900,7 +29900,7 @@
         <v>44859</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29957,7 +29957,7 @@
         <v>45771.45686342593</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -30014,7 +30014,7 @@
         <v>45259</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -30071,7 +30071,7 @@
         <v>45229</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -30128,7 +30128,7 @@
         <v>45001</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -30190,7 +30190,7 @@
         <v>45977.45586805556</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -30247,7 +30247,7 @@
         <v>45979.43388888889</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30304,7 +30304,7 @@
         <v>45979.44006944444</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30361,7 +30361,7 @@
         <v>45063</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30418,7 +30418,7 @@
         <v>45981.41228009259</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30475,7 +30475,7 @@
         <v>45981.37621527778</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30532,7 +30532,7 @@
         <v>45981.62792824074</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30589,7 +30589,7 @@
         <v>45320</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -30666,7 +30666,7 @@
         <v>45188</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30723,7 +30723,7 @@
         <v>45572.60915509259</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30780,7 +30780,7 @@
         <v>45372.58969907407</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30842,7 +30842,7 @@
         <v>45981.63909722222</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30899,7 +30899,7 @@
         <v>45980.5122337963</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30961,7 +30961,7 @@
         <v>44900.3521412037</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -31018,7 +31018,7 @@
         <v>45581.43337962963</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -31075,7 +31075,7 @@
         <v>45985.63859953704</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -31132,7 +31132,7 @@
         <v>45982.43615740741</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -31189,7 +31189,7 @@
         <v>45982.39435185185</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -31246,7 +31246,7 @@
         <v>45769.42203703704</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -31308,7 +31308,7 @@
         <v>45337.54135416666</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31365,7 +31365,7 @@
         <v>45965.6534837963</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31422,7 +31422,7 @@
         <v>45968.42591435185</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31479,7 +31479,7 @@
         <v>45196.58278935185</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31536,7 +31536,7 @@
         <v>45988.45105324074</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31593,7 +31593,7 @@
         <v>45104.40493055555</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31655,7 +31655,7 @@
         <v>45992.62635416666</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31712,7 +31712,7 @@
         <v>46035.4731712963</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31769,7 +31769,7 @@
         <v>45992</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31826,7 +31826,7 @@
         <v>45203</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31883,7 +31883,7 @@
         <v>45992.45640046296</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31940,7 +31940,7 @@
         <v>45708.67253472222</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31997,7 +31997,7 @@
         <v>45756.35998842592</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -32059,7 +32059,7 @@
         <v>45524.61752314815</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -32116,7 +32116,7 @@
         <v>46036.37797453703</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -32173,7 +32173,7 @@
         <v>44804.61636574074</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -32230,7 +32230,7 @@
         <v>44363</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -32287,7 +32287,7 @@
         <v>46037.42600694444</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32344,7 +32344,7 @@
         <v>46037.61490740741</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32401,7 +32401,7 @@
         <v>45519.67503472222</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32458,7 +32458,7 @@
         <v>45593.32924768519</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32515,7 +32515,7 @@
         <v>45205</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32572,7 +32572,7 @@
         <v>45999.65799768519</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32629,7 +32629,7 @@
         <v>45239.36509259259</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32686,7 +32686,7 @@
         <v>45278</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32743,7 +32743,7 @@
         <v>46041.41971064815</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32800,7 +32800,7 @@
         <v>46038</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32857,7 +32857,7 @@
         <v>46041.42416666666</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32914,7 +32914,7 @@
         <v>45463</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32971,7 +32971,7 @@
         <v>45222</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -33028,7 +33028,7 @@
         <v>45404.67442129629</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -33085,7 +33085,7 @@
         <v>46038.39023148148</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -33142,7 +33142,7 @@
         <v>46041</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -33199,7 +33199,7 @@
         <v>45519.644375</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -33256,7 +33256,7 @@
         <v>45145.36853009259</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -33313,7 +33313,7 @@
         <v>46043.41603009259</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33370,7 +33370,7 @@
         <v>46001.5266087963</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33427,7 +33427,7 @@
         <v>46042.475625</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33484,7 +33484,7 @@
         <v>46043.64811342592</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -33546,7 +33546,7 @@
         <v>45574.51053240741</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -33603,7 +33603,7 @@
         <v>46001.58590277778</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -33660,7 +33660,7 @@
         <v>44915.62751157407</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33717,7 +33717,7 @@
         <v>45582.44894675926</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33774,7 +33774,7 @@
         <v>44482</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33831,7 +33831,7 @@
         <v>45210</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33888,7 +33888,7 @@
         <v>45153</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33945,7 +33945,7 @@
         <v>46044.6533449074</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -34002,7 +34002,7 @@
         <v>44368</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -34059,7 +34059,7 @@
         <v>44515</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -34116,7 +34116,7 @@
         <v>46002.37662037037</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -34173,7 +34173,7 @@
         <v>46002.39755787037</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -34230,7 +34230,7 @@
         <v>46002.39347222223</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -34287,7 +34287,7 @@
         <v>46003.63954861111</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -34344,7 +34344,7 @@
         <v>45632.46545138889</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -34401,7 +34401,7 @@
         <v>45756.36844907407</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -34463,7 +34463,7 @@
         <v>46006.3365625</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -34520,7 +34520,7 @@
         <v>46049.57591435185</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -34582,7 +34582,7 @@
         <v>45057</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -34644,7 +34644,7 @@
         <v>46006.33462962963</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -34701,7 +34701,7 @@
         <v>44389</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -34758,7 +34758,7 @@
         <v>46048.70013888889</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34815,7 +34815,7 @@
         <v>45036.46804398148</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34872,7 +34872,7 @@
         <v>45188</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34929,7 +34929,7 @@
         <v>45408.41166666667</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34986,7 +34986,7 @@
         <v>45533</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -35043,7 +35043,7 @@
         <v>44581</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -35100,7 +35100,7 @@
         <v>46007.66275462963</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -35157,7 +35157,7 @@
         <v>45628.49931712963</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -35214,7 +35214,7 @@
         <v>45196</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -35271,7 +35271,7 @@
         <v>45775.63119212963</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -35328,7 +35328,7 @@
         <v>46051.51640046296</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -35385,7 +35385,7 @@
         <v>46009.45792824074</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -35442,7 +35442,7 @@
         <v>46009.46129629629</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -35499,7 +35499,7 @@
         <v>46009.60133101852</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -35556,7 +35556,7 @@
         <v>46051.63380787037</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -35613,7 +35613,7 @@
         <v>45607.65123842593</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -35670,7 +35670,7 @@
         <v>46008.33967592593</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -35727,7 +35727,7 @@
         <v>46008.72493055555</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -35784,7 +35784,7 @@
         <v>46008.35011574074</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35841,7 +35841,7 @@
         <v>46008.34541666666</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35898,7 +35898,7 @@
         <v>44699</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35955,7 +35955,7 @@
         <v>46052.33809027778</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -36012,7 +36012,7 @@
         <v>45807</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -36069,7 +36069,7 @@
         <v>45807</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -36126,7 +36126,7 @@
         <v>45807</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -36183,7 +36183,7 @@
         <v>45807</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -36240,7 +36240,7 @@
         <v>46013.36556712963</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -36302,7 +36302,7 @@
         <v>46055.36231481482</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -36364,7 +36364,7 @@
         <v>46052.50533564815</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -36421,7 +36421,7 @@
         <v>46013.36268518519</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -36483,7 +36483,7 @@
         <v>46013.42269675926</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -36545,7 +36545,7 @@
         <v>45162.68787037037</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -36602,7 +36602,7 @@
         <v>45279.43570601852</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -36659,7 +36659,7 @@
         <v>46057.56855324074</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -36716,7 +36716,7 @@
         <v>46057.35288194445</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -36773,7 +36773,7 @@
         <v>46057.58777777778</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36830,7 +36830,7 @@
         <v>45954.65564814815</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36887,7 +36887,7 @@
         <v>46013.96362268519</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36944,7 +36944,7 @@
         <v>46014.54496527778</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -37001,7 +37001,7 @@
         <v>46057.47490740741</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -37058,7 +37058,7 @@
         <v>46056.6352662037</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -37115,7 +37115,7 @@
         <v>46056.49622685185</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -37172,7 +37172,7 @@
         <v>46056.60297453704</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -37229,7 +37229,7 @@
         <v>46056.66945601852</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -37286,7 +37286,7 @@
         <v>46014.539375</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -37343,7 +37343,7 @@
         <v>44945.32997685186</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -37400,7 +37400,7 @@
         <v>46057.53868055555</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -37457,7 +37457,7 @@
         <v>46057.59153935185</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -37514,7 +37514,7 @@
         <v>45553</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -37571,7 +37571,7 @@
         <v>45184.58199074074</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -37633,7 +37633,7 @@
         <v>46056.4644675926</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -37690,7 +37690,7 @@
         <v>46041</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -37747,7 +37747,7 @@
         <v>46059.42018518518</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37804,7 +37804,7 @@
         <v>45582.45226851852</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37861,7 +37861,7 @@
         <v>45582.45449074074</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37918,7 +37918,7 @@
         <v>44957</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37975,7 +37975,7 @@
         <v>44957</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -38037,7 +38037,7 @@
         <v>45203</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -38094,7 +38094,7 @@
         <v>46063.52565972223</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -38156,7 +38156,7 @@
         <v>46063.42481481482</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -38213,7 +38213,7 @@
         <v>45105.54791666667</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -38270,7 +38270,7 @@
         <v>45425.45568287037</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -38327,7 +38327,7 @@
         <v>46020</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -38384,7 +38384,7 @@
         <v>45588.59290509259</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -38441,7 +38441,7 @@
         <v>46063.65672453704</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -38498,7 +38498,7 @@
         <v>45147.3934837963</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -38555,7 +38555,7 @@
         <v>46043</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -38612,7 +38612,7 @@
         <v>45253.43202546296</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -38669,7 +38669,7 @@
         <v>46044.741875</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -38726,7 +38726,7 @@
         <v>46043</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38783,7 +38783,7 @@
         <v>46064.6643287037</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38840,7 +38840,7 @@
         <v>44887.43714120371</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38902,7 +38902,7 @@
         <v>45562.33179398148</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38959,7 +38959,7 @@
         <v>46065.4490162037</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -39016,7 +39016,7 @@
         <v>45642.64803240741</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -39078,7 +39078,7 @@
         <v>46052.47197916666</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -39135,7 +39135,7 @@
         <v>46065.45336805555</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -39192,7 +39192,7 @@
         <v>46065.61790509259</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -39249,7 +39249,7 @@
         <v>45264</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -39311,7 +39311,7 @@
         <v>45173</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -39373,7 +39373,7 @@
         <v>45628.41274305555</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -39430,7 +39430,7 @@
         <v>45691.69671296296</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -39487,7 +39487,7 @@
         <v>46066.55876157407</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -39549,7 +39549,7 @@
         <v>46027</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -39606,7 +39606,7 @@
         <v>46024.62364583334</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -39663,7 +39663,7 @@
         <v>45573</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -39720,7 +39720,7 @@
         <v>46069</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -39777,7 +39777,7 @@
         <v>46048</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -39834,7 +39834,7 @@
         <v>46069</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39891,7 +39891,7 @@
         <v>45761.60459490741</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39953,7 +39953,7 @@
         <v>46071.42309027778</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -40010,7 +40010,7 @@
         <v>46062</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -40067,7 +40067,7 @@
         <v>45247</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -40124,7 +40124,7 @@
         <v>44725</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -40181,7 +40181,7 @@
         <v>45999.66488425926</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -40238,7 +40238,7 @@
         <v>46059</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -40295,7 +40295,7 @@
         <v>45621.45765046297</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -40352,7 +40352,7 @@
         <v>44382.57981481482</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -40409,7 +40409,7 @@
         <v>46048</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -40466,7 +40466,7 @@
         <v>46051.78189814815</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -40523,7 +40523,7 @@
         <v>45567.33655092592</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -40580,7 +40580,7 @@
         <v>45415.58502314815</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -40637,7 +40637,7 @@
         <v>46027</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -40694,7 +40694,7 @@
         <v>45210</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -40751,7 +40751,7 @@
         <v>46029</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -40813,7 +40813,7 @@
         <v>45105.54270833333</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40870,7 +40870,7 @@
         <v>46029</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40932,7 +40932,7 @@
         <v>44266</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40989,7 +40989,7 @@
         <v>46031</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -41046,7 +41046,7 @@
         <v>46071.615</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -41103,7 +41103,7 @@
         <v>44347</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -41160,7 +41160,7 @@
         <v>45499.51721064815</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -41217,7 +41217,7 @@
         <v>45420.68172453704</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -41274,7 +41274,7 @@
         <v>45554.6687037037</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -41331,7 +41331,7 @@
         <v>46030.46954861111</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -41388,7 +41388,7 @@
         <v>46072.50745370371</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -41445,7 +41445,7 @@
         <v>45174.34662037037</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -41502,7 +41502,7 @@
         <v>46071.44172453704</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -41559,7 +41559,7 @@
         <v>46070.69221064815</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -41616,7 +41616,7 @@
         <v>44838</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -41673,7 +41673,7 @@
         <v>46050</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -41730,7 +41730,7 @@
         <v>46030</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -41787,7 +41787,7 @@
         <v>46072.5968287037</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41844,7 +41844,7 @@
         <v>46072.48162037037</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41901,7 +41901,7 @@
         <v>45188</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41958,7 +41958,7 @@
         <v>46030.66743055556</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -42015,7 +42015,7 @@
         <v>45636</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -42077,7 +42077,7 @@
         <v>45695.54651620371</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -42134,7 +42134,7 @@
         <v>45334.38981481481</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -42191,7 +42191,7 @@
         <v>45553.44084490741</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -42248,7 +42248,7 @@
         <v>45608.69395833334</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -42305,7 +42305,7 @@
         <v>44838.46721064814</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -42362,7 +42362,7 @@
         <v>44642.65418981481</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -42419,7 +42419,7 @@
         <v>45756</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -42476,7 +42476,7 @@
         <v>45524.62600694445</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -42533,7 +42533,7 @@
         <v>45544</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -42590,7 +42590,7 @@
         <v>45343.95445601852</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -42647,7 +42647,7 @@
         <v>45072.34796296297</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -42704,7 +42704,7 @@
         <v>45260.5284375</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -42761,7 +42761,7 @@
         <v>45350</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42818,7 +42818,7 @@
         <v>45754.36738425926</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42875,7 +42875,7 @@
         <v>45215.43879629629</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42932,7 +42932,7 @@
         <v>45476.68435185185</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42989,7 +42989,7 @@
         <v>45476.68616898148</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -43046,7 +43046,7 @@
         <v>45385.55375</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -43103,7 +43103,7 @@
         <v>45589.76975694444</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -43160,7 +43160,7 @@
         <v>45252.48592592592</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -43217,7 +43217,7 @@
         <v>45098</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -43274,7 +43274,7 @@
         <v>45237.60775462963</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -43336,7 +43336,7 @@
         <v>45460.70204861111</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -43393,7 +43393,7 @@
         <v>44957</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -43450,7 +43450,7 @@
         <v>45567.35359953704</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -43507,7 +43507,7 @@
         <v>45363.40368055556</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -43564,7 +43564,7 @@
         <v>45440.59936342593</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -43621,7 +43621,7 @@
         <v>45481.42923611111</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -43678,7 +43678,7 @@
         <v>45490.33387731481</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -43735,7 +43735,7 @@
         <v>45632.46821759259</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43792,7 +43792,7 @@
         <v>45576.54820601852</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43854,7 +43854,7 @@
         <v>45632.34984953704</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43911,7 +43911,7 @@
         <v>44953</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43968,7 +43968,7 @@
         <v>44953.44965277778</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -44025,7 +44025,7 @@
         <v>44438</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -44082,7 +44082,7 @@
         <v>45631.71893518518</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -44139,7 +44139,7 @@
         <v>44949.57856481482</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -44196,7 +44196,7 @@
         <v>45744.50722222222</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -44253,7 +44253,7 @@
         <v>44819.66083333334</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -44310,7 +44310,7 @@
         <v>45272</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -44367,7 +44367,7 @@
         <v>45376.61019675926</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -44424,7 +44424,7 @@
         <v>44937</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -44481,7 +44481,7 @@
         <v>44806</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -44538,7 +44538,7 @@
         <v>45180</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -44600,7 +44600,7 @@
         <v>44533</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -44657,7 +44657,7 @@
         <v>45279</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -44714,7 +44714,7 @@
         <v>45540.85054398148</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44771,7 +44771,7 @@
         <v>45743.55756944444</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44828,7 +44828,7 @@
         <v>45229</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44885,7 +44885,7 @@
         <v>45615.49371527778</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44942,7 +44942,7 @@
         <v>45008.64575231481</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44999,7 +44999,7 @@
         <v>45628.41587962963</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -45056,7 +45056,7 @@
         <v>45761</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -45118,7 +45118,7 @@
         <v>45761.59523148148</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -45180,7 +45180,7 @@
         <v>44589</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -45237,7 +45237,7 @@
         <v>45194</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -45294,7 +45294,7 @@
         <v>45576.43782407408</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -45351,7 +45351,7 @@
         <v>45756.37201388889</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -45413,7 +45413,7 @@
         <v>45162</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -45470,7 +45470,7 @@
         <v>45625.55440972222</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -45527,7 +45527,7 @@
         <v>45691.36403935185</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -45584,7 +45584,7 @@
         <v>45259</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -45641,7 +45641,7 @@
         <v>45756.36403935185</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -45703,7 +45703,7 @@
         <v>45460.69545138889</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45760,7 +45760,7 @@
         <v>45756.56131944444</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45817,7 +45817,7 @@
         <v>44953</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45874,7 +45874,7 @@
         <v>45188</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45931,7 +45931,7 @@
         <v>45448.38677083333</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45988,7 +45988,7 @@
         <v>44694.62913194444</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -46045,7 +46045,7 @@
         <v>44851</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -46102,7 +46102,7 @@
         <v>45334</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -46164,7 +46164,7 @@
         <v>45520</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -46221,7 +46221,7 @@
         <v>45584.42887731481</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -46278,7 +46278,7 @@
         <v>45553.47538194444</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -46335,7 +46335,7 @@
         <v>45520.48304398148</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -46392,7 +46392,7 @@
         <v>45439</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -46454,7 +46454,7 @@
         <v>45561.3771412037</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -46511,7 +46511,7 @@
         <v>45607.57142361111</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -46568,7 +46568,7 @@
         <v>45516.40261574074</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -46625,7 +46625,7 @@
         <v>45090</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -46682,7 +46682,7 @@
         <v>45554.88538194444</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -46739,7 +46739,7 @@
         <v>45572.48407407408</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46796,7 +46796,7 @@
         <v>45607</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46853,7 +46853,7 @@
         <v>45567.3515162037</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46910,7 +46910,7 @@
         <v>45572.38429398148</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46967,7 +46967,7 @@
         <v>45741.4050462963</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -47024,7 +47024,7 @@
         <v>45741</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -47081,7 +47081,7 @@
         <v>45410.78502314815</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -47138,7 +47138,7 @@
         <v>45264.43802083333</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -47200,7 +47200,7 @@
         <v>45264</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -47262,7 +47262,7 @@
         <v>45551.45322916667</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -47319,7 +47319,7 @@
         <v>45618</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -47376,7 +47376,7 @@
         <v>45453.44091435185</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -47433,7 +47433,7 @@
         <v>45408.46980324074</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -47490,7 +47490,7 @@
         <v>45784.45060185185</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -47547,7 +47547,7 @@
         <v>45784.44481481481</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -47604,7 +47604,7 @@
         <v>45784.45273148148</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -47661,7 +47661,7 @@
         <v>45786.45721064815</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -47723,7 +47723,7 @@
         <v>45786.54940972223</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -47785,7 +47785,7 @@
         <v>45791.70299768518</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -47842,7 +47842,7 @@
         <v>45625</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -47899,7 +47899,7 @@
         <v>45625</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -47956,7 +47956,7 @@
         <v>45785</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -48013,7 +48013,7 @@
         <v>45638</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -48070,7 +48070,7 @@
         <v>45725</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -48127,7 +48127,7 @@
         <v>45625</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -48184,7 +48184,7 @@
         <v>44720</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -48241,7 +48241,7 @@
         <v>45232.53052083333</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -48298,7 +48298,7 @@
         <v>45791</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -48355,7 +48355,7 @@
         <v>45272</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -48412,7 +48412,7 @@
         <v>45796.63137731481</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -48469,7 +48469,7 @@
         <v>45797.40260416667</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -48526,7 +48526,7 @@
         <v>45715.45341435185</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -48583,7 +48583,7 @@
         <v>44796.60479166666</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -48640,7 +48640,7 @@
         <v>45049</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -48697,7 +48697,7 @@
         <v>45797.37607638889</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -48754,7 +48754,7 @@
         <v>45797.45581018519</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -48811,7 +48811,7 @@
         <v>45769</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -48868,7 +48868,7 @@
         <v>45798.62243055556</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -48930,7 +48930,7 @@
         <v>45799.56524305556</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -48987,7 +48987,7 @@
         <v>45798.6003587963</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -49049,7 +49049,7 @@
         <v>45799.57666666667</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -49106,7 +49106,7 @@
         <v>45798.62894675926</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -49168,7 +49168,7 @@
         <v>44473.39252314815</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -49225,7 +49225,7 @@
         <v>45807</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -49282,7 +49282,7 @@
         <v>45497</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -49339,7 +49339,7 @@
         <v>45810.50702546296</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -49396,7 +49396,7 @@
         <v>45439.45527777778</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -49453,7 +49453,7 @@
         <v>45625.38677083333</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -49510,7 +49510,7 @@
         <v>45810.46144675926</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -49567,7 +49567,7 @@
         <v>45705.59269675926</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -49624,7 +49624,7 @@
         <v>45810.67462962963</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -49681,7 +49681,7 @@
         <v>45810.38439814815</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -49738,7 +49738,7 @@
         <v>45809</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -49795,7 +49795,7 @@
         <v>45812.37965277778</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -49852,7 +49852,7 @@
         <v>45756</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -49909,7 +49909,7 @@
         <v>45813.59405092592</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -49966,7 +49966,7 @@
         <v>45812.36133101852</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -50023,7 +50023,7 @@
         <v>45812.3533912037</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -50085,7 +50085,7 @@
         <v>45742.38511574074</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -50147,7 +50147,7 @@
         <v>45812.35072916667</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -50209,7 +50209,7 @@
         <v>45817.6325462963</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>

--- a/Översikt MORA.xlsx
+++ b/Översikt MORA.xlsx
@@ -575,7 +575,7 @@
         <v>45737</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         <v>45855</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>45118</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -953,7 +953,7 @@
         <v>45763</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1078,7 +1078,7 @@
         <v>45826</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1198,7 +1198,7 @@
         <v>45944.29658564815</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         <v>45932.43633101852</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         <v>45666</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1533,7 +1533,7 @@
         <v>45982.44465277778</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>45919</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1751,7 +1751,7 @@
         <v>45967.57792824074</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1856,7 +1856,7 @@
         <v>45911</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>45853</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2071,7 +2071,7 @@
         <v>45749</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2175,7 +2175,7 @@
         <v>45775</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2279,7 +2279,7 @@
         <v>45855</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2387,7 +2387,7 @@
         <v>45590</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
         <v>45625</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
         <v>45792</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         <v>45855</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>45916.39680555555</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
         <v>45217.60914351852</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>45833</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3102,7 +3102,7 @@
         <v>45533.45853009259</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>45848</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
         <v>45978.62241898148</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3396,7 +3396,7 @@
         <v>45826</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>44958.60337962963</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3592,7 +3592,7 @@
         <v>45895.42209490741</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3689,7 +3689,7 @@
         <v>45981.41530092592</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3782,7 +3782,7 @@
         <v>45061.58952546296</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
         <v>45902.60008101852</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3977,7 +3977,7 @@
         <v>45855</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4079,7 +4079,7 @@
         <v>45653.49774305556</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4176,7 +4176,7 @@
         <v>45642</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>45890.35232638889</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4372,7 +4372,7 @@
         <v>45925.6530324074</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4468,7 +4468,7 @@
         <v>45832</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4564,7 +4564,7 @@
         <v>45841.40309027778</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4660,7 +4660,7 @@
         <v>46036</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4756,7 +4756,7 @@
         <v>45264</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>45824.59025462963</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>45825.3303125</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -5046,7 +5046,7 @@
         <v>45987.36070601852</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5146,7 +5146,7 @@
         <v>45848</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5240,7 +5240,7 @@
         <v>45982.72690972222</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5339,7 +5339,7 @@
         <v>46006.48664351852</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>45525</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5523,7 +5523,7 @@
         <v>45712.57467592593</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5617,7 +5617,7 @@
         <v>45959.6131712963</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5710,7 +5710,7 @@
         <v>44343</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5807,7 +5807,7 @@
         <v>45833</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         <v>45985.64645833334</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>45855</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>45393.63902777778</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6187,7 +6187,7 @@
         <v>45418.39261574074</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6275,7 +6275,7 @@
         <v>45743.36951388889</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6367,7 +6367,7 @@
         <v>45890.3469212963</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>45890.35881944445</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6547,7 +6547,7 @@
         <v>45835.59140046296</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>45848</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6735,7 +6735,7 @@
         <v>46002.64605324074</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6827,7 +6827,7 @@
         <v>45890.35545138889</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6918,7 +6918,7 @@
         <v>45824.60537037037</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -7005,7 +7005,7 @@
         <v>45939.67418981482</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -7096,7 +7096,7 @@
         <v>46008.34148148148</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7187,7 +7187,7 @@
         <v>46067.50817129629</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7278,7 +7278,7 @@
         <v>45791.41832175926</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7373,7 +7373,7 @@
         <v>45852.45686342593</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7459,7 +7459,7 @@
         <v>45159.32799768518</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7545,7 +7545,7 @@
         <v>45177.49715277777</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7636,7 +7636,7 @@
         <v>46037.84224537037</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7726,7 +7726,7 @@
         <v>44364</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7820,7 +7820,7 @@
         <v>44959.55116898148</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7910,7 +7910,7 @@
         <v>45406.41648148148</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -8000,7 +8000,7 @@
         <v>45471</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -8085,7 +8085,7 @@
         <v>44897</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8170,7 +8170,7 @@
         <v>45775.62283564815</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -8255,7 +8255,7 @@
         <v>45007</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8344,7 +8344,7 @@
         <v>44529</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8433,7 +8433,7 @@
         <v>46006.38961805555</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8518,7 +8518,7 @@
         <v>45665.58001157407</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>45576</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>45077</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8773,7 +8773,7 @@
         <v>44410</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8830,7 +8830,7 @@
         <v>44553</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8887,7 +8887,7 @@
         <v>44517.934375</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8944,7 +8944,7 @@
         <v>44427</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -9001,7 +9001,7 @@
         <v>44796</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -9063,7 +9063,7 @@
         <v>44546.5862037037</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9120,7 +9120,7 @@
         <v>44813</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9177,7 +9177,7 @@
         <v>44515</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9234,7 +9234,7 @@
         <v>44832.31839120371</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9291,7 +9291,7 @@
         <v>44362.38358796296</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9348,7 +9348,7 @@
         <v>44838</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9410,7 +9410,7 @@
         <v>44470.63695601852</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9467,7 +9467,7 @@
         <v>44459.68884259259</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9524,7 +9524,7 @@
         <v>44601</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9581,7 +9581,7 @@
         <v>44705</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9638,7 +9638,7 @@
         <v>44545</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9700,7 +9700,7 @@
         <v>44421</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9757,7 +9757,7 @@
         <v>44455</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9814,7 +9814,7 @@
         <v>44295</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9871,7 +9871,7 @@
         <v>44421</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9928,7 +9928,7 @@
         <v>44516.42728009259</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9985,7 +9985,7 @@
         <v>44417.43135416666</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10042,7 +10042,7 @@
         <v>44432</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10099,7 +10099,7 @@
         <v>44747</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10161,7 +10161,7 @@
         <v>44365.59125</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10218,7 +10218,7 @@
         <v>44301</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10275,7 +10275,7 @@
         <v>44365.58731481482</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10332,7 +10332,7 @@
         <v>44365</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10389,7 +10389,7 @@
         <v>44848</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10446,7 +10446,7 @@
         <v>44844.47778935185</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10508,7 +10508,7 @@
         <v>44369.7362037037</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10565,7 +10565,7 @@
         <v>44673</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10622,7 +10622,7 @@
         <v>44425</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10679,7 +10679,7 @@
         <v>44455</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10736,7 +10736,7 @@
         <v>44788.32601851852</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10793,7 +10793,7 @@
         <v>44845.35591435185</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10850,7 +10850,7 @@
         <v>44489</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10912,7 +10912,7 @@
         <v>44523.35982638889</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
         <v>44423.65152777778</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11031,7 +11031,7 @@
         <v>44609.62314814814</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11088,7 +11088,7 @@
         <v>44421</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11145,7 +11145,7 @@
         <v>44578.66320601852</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11202,7 +11202,7 @@
         <v>44389.62159722222</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11259,7 +11259,7 @@
         <v>44658</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11316,7 +11316,7 @@
         <v>44546.60960648148</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11373,7 +11373,7 @@
         <v>44530</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11430,7 +11430,7 @@
         <v>44466</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11487,7 +11487,7 @@
         <v>44742.58386574074</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11549,7 +11549,7 @@
         <v>44517.92888888889</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11606,7 +11606,7 @@
         <v>44488</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>44480.57549768518</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
         <v>44749.56221064815</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11787,7 +11787,7 @@
         <v>44782</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11849,7 +11849,7 @@
         <v>44589.65528935185</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11906,7 +11906,7 @@
         <v>44543</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11963,7 +11963,7 @@
         <v>44301</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -12020,7 +12020,7 @@
         <v>44680.4265162037</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -12077,7 +12077,7 @@
         <v>44489.94246527777</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -12134,7 +12134,7 @@
         <v>44796.60181712963</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -12191,7 +12191,7 @@
         <v>44858.66387731482</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12248,7 +12248,7 @@
         <v>44810.63806712963</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12305,7 +12305,7 @@
         <v>44522</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12362,7 +12362,7 @@
         <v>44613</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>44656.37616898148</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>44326</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12533,7 +12533,7 @@
         <v>44726</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12590,7 +12590,7 @@
         <v>45628.41587962963</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12647,7 +12647,7 @@
         <v>45334.38981481481</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12704,7 +12704,7 @@
         <v>45056</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12761,7 +12761,7 @@
         <v>45412</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12818,7 +12818,7 @@
         <v>45222</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>44847.518125</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>45415.58502314815</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>45460.70204861111</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         <v>44796</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -13103,7 +13103,7 @@
         <v>45253.43202546296</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -13160,7 +13160,7 @@
         <v>45420.68172453704</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13217,7 +13217,7 @@
         <v>44389</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13274,7 +13274,7 @@
         <v>45450</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13336,7 +13336,7 @@
         <v>45184</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13398,7 +13398,7 @@
         <v>45210</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13455,7 +13455,7 @@
         <v>45427.61516203704</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13512,7 +13512,7 @@
         <v>45260.46438657407</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13569,7 +13569,7 @@
         <v>45425.45568287037</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13626,7 +13626,7 @@
         <v>44497</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13683,7 +13683,7 @@
         <v>45516.40261574074</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13740,7 +13740,7 @@
         <v>45490.33387731481</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13797,7 +13797,7 @@
         <v>45533</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13854,7 +13854,7 @@
         <v>44852</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13911,7 +13911,7 @@
         <v>44949.57856481482</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13968,7 +13968,7 @@
         <v>44874</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -14030,7 +14030,7 @@
         <v>45174.34662037037</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -14087,7 +14087,7 @@
         <v>45524.62600694445</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -14144,7 +14144,7 @@
         <v>44531</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14201,7 +14201,7 @@
         <v>45553</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14258,7 +14258,7 @@
         <v>45512.70077546296</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14320,7 +14320,7 @@
         <v>44893</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14377,7 +14377,7 @@
         <v>44482</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14434,7 +14434,7 @@
         <v>44819.66083333334</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         <v>45453.44091435185</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14548,7 +14548,7 @@
         <v>45499.51721064815</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14605,7 +14605,7 @@
         <v>44898</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14662,7 +14662,7 @@
         <v>44911</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14719,7 +14719,7 @@
         <v>45460</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14776,7 +14776,7 @@
         <v>45567.33655092592</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14833,7 +14833,7 @@
         <v>45646.74988425926</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14890,7 +14890,7 @@
         <v>45755.46106481482</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14952,7 +14952,7 @@
         <v>45810.38439814815</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -15009,7 +15009,7 @@
         <v>45625.38677083333</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -15066,7 +15066,7 @@
         <v>45497</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -15123,7 +15123,7 @@
         <v>45617.83969907407</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -15180,7 +15180,7 @@
         <v>45667.46648148148</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15237,7 +15237,7 @@
         <v>45807</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15294,7 +15294,7 @@
         <v>45439.45527777778</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15351,7 +15351,7 @@
         <v>45809</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15408,7 +15408,7 @@
         <v>45551.45322916667</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15465,7 +15465,7 @@
         <v>45810.67462962963</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15522,7 +15522,7 @@
         <v>45810.50702546296</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15579,7 +15579,7 @@
         <v>44945.32997685186</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15636,7 +15636,7 @@
         <v>45810.46144675926</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15693,7 +15693,7 @@
         <v>45812.3533912037</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15755,7 +15755,7 @@
         <v>45812.37965277778</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15812,7 +15812,7 @@
         <v>45742.38511574074</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15874,7 +15874,7 @@
         <v>45812.35072916667</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15936,7 +15936,7 @@
         <v>45705.59269675926</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15993,7 +15993,7 @@
         <v>45812.36133101852</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -16050,7 +16050,7 @@
         <v>45756</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -16107,7 +16107,7 @@
         <v>45889.76200231481</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16169,7 +16169,7 @@
         <v>45813.59405092592</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16226,7 +16226,7 @@
         <v>44382.57981481482</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16283,7 +16283,7 @@
         <v>44942.57987268519</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16340,7 +16340,7 @@
         <v>45817.6325462963</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16402,7 +16402,7 @@
         <v>45240</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16459,7 +16459,7 @@
         <v>45894.57918981482</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16516,7 +16516,7 @@
         <v>45891</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16573,7 +16573,7 @@
         <v>45820.40034722222</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16635,7 +16635,7 @@
         <v>45554.88538194444</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16692,7 +16692,7 @@
         <v>45820.67107638889</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16749,7 +16749,7 @@
         <v>44725</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16806,7 +16806,7 @@
         <v>45820.67221064815</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16863,7 +16863,7 @@
         <v>45820.66846064815</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16920,7 +16920,7 @@
         <v>45800</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16977,7 +16977,7 @@
         <v>45401.4194212963</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -17034,7 +17034,7 @@
         <v>45891</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -17091,7 +17091,7 @@
         <v>45824.64524305556</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -17148,7 +17148,7 @@
         <v>44995</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17205,7 +17205,7 @@
         <v>45821.34855324074</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17267,7 +17267,7 @@
         <v>45404.67442129629</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17324,7 +17324,7 @@
         <v>45573</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17381,7 +17381,7 @@
         <v>45894.57016203704</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17438,7 +17438,7 @@
         <v>45894.57202546296</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17495,7 +17495,7 @@
         <v>45824.65862268519</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>45821.50900462963</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17609,7 +17609,7 @@
         <v>45895.67356481482</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>45576.54820601852</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17728,7 +17728,7 @@
         <v>45826.35716435185</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17785,7 +17785,7 @@
         <v>45826</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17842,7 +17842,7 @@
         <v>45896.64715277778</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17899,7 +17899,7 @@
         <v>45896.64631944444</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17961,7 +17961,7 @@
         <v>45799</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -18018,7 +18018,7 @@
         <v>44694.62913194444</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -18075,7 +18075,7 @@
         <v>45897.46659722222</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -18132,7 +18132,7 @@
         <v>45825.34322916667</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18189,7 +18189,7 @@
         <v>45691.69671296296</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18246,7 +18246,7 @@
         <v>45229</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18303,7 +18303,7 @@
         <v>45898.55165509259</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18360,7 +18360,7 @@
         <v>45798.59290509259</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18422,7 +18422,7 @@
         <v>45798.63875</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18484,7 +18484,7 @@
         <v>44581</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18541,7 +18541,7 @@
         <v>44907</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18598,7 +18598,7 @@
         <v>45826.6575</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18655,7 +18655,7 @@
         <v>45898.5738425926</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18712,7 +18712,7 @@
         <v>44897</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18769,7 +18769,7 @@
         <v>45554.6687037037</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18826,7 +18826,7 @@
         <v>45203</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18883,7 +18883,7 @@
         <v>45902.58721064815</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18940,7 +18940,7 @@
         <v>45827.33116898148</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18997,7 +18997,7 @@
         <v>45901.68267361111</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -19059,7 +19059,7 @@
         <v>45576</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19116,7 +19116,7 @@
         <v>45057</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19178,7 +19178,7 @@
         <v>45574.51053240741</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19235,7 +19235,7 @@
         <v>44956</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19292,7 +19292,7 @@
         <v>45184.58199074074</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19354,7 +19354,7 @@
         <v>45903</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19411,7 +19411,7 @@
         <v>45831.24760416667</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19468,7 +19468,7 @@
         <v>45902.93693287037</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19525,7 +19525,7 @@
         <v>45831.92416666666</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19582,7 +19582,7 @@
         <v>45831.93105324074</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19639,7 +19639,7 @@
         <v>45904.32134259259</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19696,7 +19696,7 @@
         <v>45832.48185185185</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19758,7 +19758,7 @@
         <v>45831.25519675926</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19815,7 +19815,7 @@
         <v>45615.47137731482</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19872,7 +19872,7 @@
         <v>45834.60525462963</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19929,7 +19929,7 @@
         <v>45908.56168981481</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         <v>45589.76975694444</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>45834.60209490741</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>45834.59822916667</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20157,7 +20157,7 @@
         <v>45775.74009259259</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20214,7 +20214,7 @@
         <v>45279.43570601852</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20271,7 +20271,7 @@
         <v>45908.57753472222</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20328,7 +20328,7 @@
         <v>45909.34799768519</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20390,7 +20390,7 @@
         <v>45909.3578125</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20447,7 +20447,7 @@
         <v>45909.36631944445</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20504,7 +20504,7 @@
         <v>45260.5284375</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20561,7 +20561,7 @@
         <v>45013</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20618,7 +20618,7 @@
         <v>44266</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20675,7 +20675,7 @@
         <v>45839.57559027777</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20732,7 +20732,7 @@
         <v>45841</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20789,7 +20789,7 @@
         <v>45910.34449074074</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20846,7 +20846,7 @@
         <v>45910.34953703704</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20903,7 +20903,7 @@
         <v>44831.81482638889</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20960,7 +20960,7 @@
         <v>45019.71342592593</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -21017,7 +21017,7 @@
         <v>45911.48967592593</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -21074,7 +21074,7 @@
         <v>45608.69395833334</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21131,7 +21131,7 @@
         <v>45844.58890046296</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
         <v>45090.68675925926</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21245,7 +21245,7 @@
         <v>45460.69545138889</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21302,7 +21302,7 @@
         <v>45911.63363425926</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21359,7 +21359,7 @@
         <v>45846</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21416,7 +21416,7 @@
         <v>45845.60520833333</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21473,7 +21473,7 @@
         <v>45912.58710648148</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21530,7 +21530,7 @@
         <v>45602.7022337963</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21587,7 +21587,7 @@
         <v>45847.38469907407</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21644,7 +21644,7 @@
         <v>45145.36853009259</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21701,7 +21701,7 @@
         <v>45631.71893518518</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21758,7 +21758,7 @@
         <v>45481.42923611111</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21815,7 +21815,7 @@
         <v>45474.37850694444</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21872,7 +21872,7 @@
         <v>45849.57297453703</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21934,7 +21934,7 @@
         <v>45852.60936342592</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21996,7 +21996,7 @@
         <v>45916.48513888889</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -22058,7 +22058,7 @@
         <v>45855.35989583333</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -22115,7 +22115,7 @@
         <v>45859.35384259259</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22172,7 +22172,7 @@
         <v>45859</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22234,7 +22234,7 @@
         <v>45860.471875</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22291,7 +22291,7 @@
         <v>45358.63265046296</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22348,7 +22348,7 @@
         <v>44642.65418981481</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22405,7 +22405,7 @@
         <v>45645.62282407407</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22462,7 +22462,7 @@
         <v>45859</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22524,7 +22524,7 @@
         <v>45632.34984953704</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22581,7 +22581,7 @@
         <v>45859</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22643,7 +22643,7 @@
         <v>45917.466875</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22700,7 +22700,7 @@
         <v>45646.37872685185</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22757,7 +22757,7 @@
         <v>45866.34385416667</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22814,7 +22814,7 @@
         <v>45750</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22871,7 +22871,7 @@
         <v>45919.54811342592</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22928,7 +22928,7 @@
         <v>45919.53329861111</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22985,7 +22985,7 @@
         <v>45924.5253125</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -23042,7 +23042,7 @@
         <v>45184.53412037037</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23104,7 +23104,7 @@
         <v>44768</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23161,7 +23161,7 @@
         <v>45708.67253472222</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23218,7 +23218,7 @@
         <v>45924.52871527777</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23275,7 +23275,7 @@
         <v>45869</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23332,7 +23332,7 @@
         <v>45926.3312962963</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23389,7 +23389,7 @@
         <v>45925</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23446,7 +23446,7 @@
         <v>45926.34195601852</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23503,7 +23503,7 @@
         <v>45756.36403935185</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23565,7 +23565,7 @@
         <v>45929.61931712963</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23622,7 +23622,7 @@
         <v>45930.61896990741</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23679,7 +23679,7 @@
         <v>44810.64164351852</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23741,7 +23741,7 @@
         <v>45873.57319444444</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23798,7 +23798,7 @@
         <v>45929.6365162037</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23855,7 +23855,7 @@
         <v>45929</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23912,7 +23912,7 @@
         <v>45931.70715277778</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23969,7 +23969,7 @@
         <v>45072</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -24026,7 +24026,7 @@
         <v>45874.38655092593</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -24083,7 +24083,7 @@
         <v>45625.55440972222</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24140,7 +24140,7 @@
         <v>45876.46681712963</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24197,7 +24197,7 @@
         <v>45875.39822916667</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24254,7 +24254,7 @@
         <v>44337</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24311,7 +24311,7 @@
         <v>44959.54355324074</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24373,7 +24373,7 @@
         <v>45636</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24435,7 +24435,7 @@
         <v>45188</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24492,7 +24492,7 @@
         <v>44482</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24549,7 +24549,7 @@
         <v>45691.35427083333</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24606,7 +24606,7 @@
         <v>45931.69100694444</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24663,7 +24663,7 @@
         <v>45530</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24720,7 +24720,7 @@
         <v>45763.63166666667</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24777,7 +24777,7 @@
         <v>45882</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24834,7 +24834,7 @@
         <v>45882.47625</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24891,7 +24891,7 @@
         <v>45932.42298611111</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24948,7 +24948,7 @@
         <v>45881.48791666667</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -25005,7 +25005,7 @@
         <v>45614.61569444444</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -25062,7 +25062,7 @@
         <v>45730.57429398148</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25124,7 +25124,7 @@
         <v>45933.71648148148</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25181,7 +25181,7 @@
         <v>45933.71896990741</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25238,7 +25238,7 @@
         <v>45931</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25295,7 +25295,7 @@
         <v>45645.76561342592</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25352,7 +25352,7 @@
         <v>44363</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25409,7 +25409,7 @@
         <v>45502.48047453703</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25466,7 +25466,7 @@
         <v>45931</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25523,7 +25523,7 @@
         <v>45572.60915509259</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25580,7 +25580,7 @@
         <v>45730.59239583334</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25642,7 +25642,7 @@
         <v>45938.67662037037</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25704,7 +25704,7 @@
         <v>45937.51315972222</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25761,7 +25761,7 @@
         <v>45063</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25818,7 +25818,7 @@
         <v>45938.66932870371</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25880,7 +25880,7 @@
         <v>44851</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25937,7 +25937,7 @@
         <v>44533</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25994,7 +25994,7 @@
         <v>45244</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -26051,7 +26051,7 @@
         <v>45173</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26113,7 +26113,7 @@
         <v>44518.39234953704</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26170,7 +26170,7 @@
         <v>45937.50666666667</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26227,7 +26227,7 @@
         <v>45939.49045138889</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26284,7 +26284,7 @@
         <v>45940.44993055556</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26341,7 +26341,7 @@
         <v>44435</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26398,7 +26398,7 @@
         <v>45524.61752314815</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26455,7 +26455,7 @@
         <v>45476.68435185185</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26512,7 +26512,7 @@
         <v>45476.68616898148</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26569,7 +26569,7 @@
         <v>44484</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26626,7 +26626,7 @@
         <v>45077</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26683,7 +26683,7 @@
         <v>45931</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26740,7 +26740,7 @@
         <v>45334</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26802,7 +26802,7 @@
         <v>45232.64195601852</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26859,7 +26859,7 @@
         <v>44806</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26916,7 +26916,7 @@
         <v>45264.43802083333</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26978,7 +26978,7 @@
         <v>45264</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -27040,7 +27040,7 @@
         <v>44837</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -27097,7 +27097,7 @@
         <v>45090</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27154,7 +27154,7 @@
         <v>45531.34050925926</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27211,7 +27211,7 @@
         <v>45252</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27268,7 +27268,7 @@
         <v>45632.46545138889</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27325,7 +27325,7 @@
         <v>45519.644375</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27382,7 +27382,7 @@
         <v>45553.44084490741</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27439,7 +27439,7 @@
         <v>45253</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27496,7 +27496,7 @@
         <v>45299</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27553,7 +27553,7 @@
         <v>45280</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27610,7 +27610,7 @@
         <v>45757.52033564815</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27667,7 +27667,7 @@
         <v>45952.69306712963</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27724,7 +27724,7 @@
         <v>44903.6605324074</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27781,7 +27781,7 @@
         <v>45385.55375</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27838,7 +27838,7 @@
         <v>45105.54270833333</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27895,7 +27895,7 @@
         <v>45951.64653935185</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27952,7 +27952,7 @@
         <v>45296.60353009259</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -28009,7 +28009,7 @@
         <v>45744.50722222222</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -28066,7 +28066,7 @@
         <v>45756.56131944444</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28123,7 +28123,7 @@
         <v>45520</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28180,7 +28180,7 @@
         <v>45260.46609953704</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28237,7 +28237,7 @@
         <v>44915.62751157407</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28294,7 +28294,7 @@
         <v>45259</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28351,7 +28351,7 @@
         <v>45761.60459490741</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28413,7 +28413,7 @@
         <v>45463</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28470,7 +28470,7 @@
         <v>45957.44552083333</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28527,7 +28527,7 @@
         <v>45264.65987268519</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28584,7 +28584,7 @@
         <v>44896</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28641,7 +28641,7 @@
         <v>45958.48280092593</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28703,7 +28703,7 @@
         <v>45958.48611111111</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28765,7 +28765,7 @@
         <v>45959</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28822,7 +28822,7 @@
         <v>45960.43893518519</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28879,7 +28879,7 @@
         <v>45582.45226851852</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28936,7 +28936,7 @@
         <v>45582.45449074074</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28993,7 +28993,7 @@
         <v>45960.49972222222</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -29050,7 +29050,7 @@
         <v>45960.40711805555</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -29107,7 +29107,7 @@
         <v>45756</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29164,7 +29164,7 @@
         <v>45645.74694444444</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29221,7 +29221,7 @@
         <v>45960.3921875</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29278,7 +29278,7 @@
         <v>45960.39960648148</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29335,7 +29335,7 @@
         <v>45960.40662037037</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29392,7 +29392,7 @@
         <v>45964.41665509259</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29449,7 +29449,7 @@
         <v>45961.57019675926</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29506,7 +29506,7 @@
         <v>45343.95445601852</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29563,7 +29563,7 @@
         <v>45254</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29620,7 +29620,7 @@
         <v>45965.61686342592</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -29677,7 +29677,7 @@
         <v>45387.5900925926</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29734,7 +29734,7 @@
         <v>45561.3771412037</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29791,7 +29791,7 @@
         <v>45965.4031712963</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29848,7 +29848,7 @@
         <v>45562.33179398148</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29905,7 +29905,7 @@
         <v>45259.57872685185</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29962,7 +29962,7 @@
         <v>45132.6291550926</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -30024,7 +30024,7 @@
         <v>45965.61844907407</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -30081,7 +30081,7 @@
         <v>45105.54791666667</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -30138,7 +30138,7 @@
         <v>45965.62608796296</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -30195,7 +30195,7 @@
         <v>45968.64847222222</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -30252,7 +30252,7 @@
         <v>45967.38884259259</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30314,7 +30314,7 @@
         <v>45968.40621527778</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30371,7 +30371,7 @@
         <v>45530.71158564815</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30428,7 +30428,7 @@
         <v>45968.40056712963</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30485,7 +30485,7 @@
         <v>45966.85649305556</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30547,7 +30547,7 @@
         <v>44600</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30604,7 +30604,7 @@
         <v>45967.374375</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -30661,7 +30661,7 @@
         <v>45279</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30718,7 +30718,7 @@
         <v>45104.40493055555</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30780,7 +30780,7 @@
         <v>45967.3700462963</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30837,7 +30837,7 @@
         <v>45967.37679398148</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30894,7 +30894,7 @@
         <v>45966.76542824074</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30951,7 +30951,7 @@
         <v>45159.59186342593</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -31008,7 +31008,7 @@
         <v>45096</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -31065,7 +31065,7 @@
         <v>45505.47716435185</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -31127,7 +31127,7 @@
         <v>45544</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -31184,7 +31184,7 @@
         <v>45530.71334490741</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -31241,7 +31241,7 @@
         <v>45968.8227662037</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -31298,7 +31298,7 @@
         <v>44957</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31355,7 +31355,7 @@
         <v>45581.43337962963</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31412,7 +31412,7 @@
         <v>45104</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31469,7 +31469,7 @@
         <v>45510.40587962963</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31526,7 +31526,7 @@
         <v>45153</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31583,7 +31583,7 @@
         <v>45567.35359953704</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31640,7 +31640,7 @@
         <v>44589</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31697,7 +31697,7 @@
         <v>45692.68561342593</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31754,7 +31754,7 @@
         <v>45771.47938657407</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31811,7 +31811,7 @@
         <v>45761.60189814815</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31873,7 +31873,7 @@
         <v>45977.45586805556</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31930,7 +31930,7 @@
         <v>45264</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31992,7 +31992,7 @@
         <v>45979.44006944444</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -32049,7 +32049,7 @@
         <v>45980.5122337963</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -32111,7 +32111,7 @@
         <v>45410.78502314815</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -32168,7 +32168,7 @@
         <v>45611.63849537037</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -32225,7 +32225,7 @@
         <v>45979.43388888889</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -32282,7 +32282,7 @@
         <v>45642.64803240741</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32344,7 +32344,7 @@
         <v>45401.40806712963</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32401,7 +32401,7 @@
         <v>45607.65123842593</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32458,7 +32458,7 @@
         <v>45982.39435185185</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32515,7 +32515,7 @@
         <v>45981.37621527778</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32572,7 +32572,7 @@
         <v>45981.62792824074</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32629,7 +32629,7 @@
         <v>45981.41228009259</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32686,7 +32686,7 @@
         <v>45982.43615740741</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32743,7 +32743,7 @@
         <v>45981.63909722222</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32800,7 +32800,7 @@
         <v>45985.63859953704</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32857,7 +32857,7 @@
         <v>45180</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32919,7 +32919,7 @@
         <v>44581</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32976,7 +32976,7 @@
         <v>45576</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -33033,7 +33033,7 @@
         <v>45629</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -33095,7 +33095,7 @@
         <v>45582.44894675926</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -33152,7 +33152,7 @@
         <v>45210</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -33209,7 +33209,7 @@
         <v>45988.45105324074</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -33266,7 +33266,7 @@
         <v>45572.48407407408</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -33323,7 +33323,7 @@
         <v>45992.62635416666</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33380,7 +33380,7 @@
         <v>45992</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33437,7 +33437,7 @@
         <v>45551.68347222222</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33494,7 +33494,7 @@
         <v>45541.61094907407</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -33551,7 +33551,7 @@
         <v>45968.42591435185</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -33608,7 +33608,7 @@
         <v>45628.49931712963</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -33665,7 +33665,7 @@
         <v>45992.45640046296</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33722,7 +33722,7 @@
         <v>45965.6534837963</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33779,7 +33779,7 @@
         <v>45351.41524305556</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33836,7 +33836,7 @@
         <v>45187.62532407408</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33898,7 +33898,7 @@
         <v>45147.33251157407</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33955,7 +33955,7 @@
         <v>45502.55185185185</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -34012,7 +34012,7 @@
         <v>45188</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -34069,7 +34069,7 @@
         <v>45603.58619212963</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -34126,7 +34126,7 @@
         <v>45420</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -34183,7 +34183,7 @@
         <v>45999.65799768519</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -34240,7 +34240,7 @@
         <v>45408.41166666667</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -34297,7 +34297,7 @@
         <v>45621.45765046297</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -34354,7 +34354,7 @@
         <v>45239.36509259259</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -34411,7 +34411,7 @@
         <v>45278</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -34468,7 +34468,7 @@
         <v>45593.32924768519</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -34525,7 +34525,7 @@
         <v>45463</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -34582,7 +34582,7 @@
         <v>45572.38429398148</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -34639,7 +34639,7 @@
         <v>45205</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -34696,7 +34696,7 @@
         <v>46042.475625</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -34753,7 +34753,7 @@
         <v>46041.42416666666</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34810,7 +34810,7 @@
         <v>46041</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34867,7 +34867,7 @@
         <v>46041.41971064815</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34924,7 +34924,7 @@
         <v>46001.58590277778</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34981,7 +34981,7 @@
         <v>45196.58278935185</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -35038,7 +35038,7 @@
         <v>46001.5266087963</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -35095,7 +35095,7 @@
         <v>44830</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -35152,7 +35152,7 @@
         <v>46043.64811342592</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -35214,7 +35214,7 @@
         <v>46002.39347222223</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -35271,7 +35271,7 @@
         <v>46044.6533449074</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -35328,7 +35328,7 @@
         <v>45695.54651620371</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -35385,7 +35385,7 @@
         <v>44617.48909722222</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -35442,7 +35442,7 @@
         <v>46043.41603009259</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -35499,7 +35499,7 @@
         <v>46002.37662037037</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -35556,7 +35556,7 @@
         <v>46002.39755787037</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -35613,7 +35613,7 @@
         <v>45607</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -35670,7 +35670,7 @@
         <v>45607.57142361111</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -35727,7 +35727,7 @@
         <v>46006.3365625</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -35784,7 +35784,7 @@
         <v>45162.68787037037</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35841,7 +35841,7 @@
         <v>45754.36738425926</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35898,7 +35898,7 @@
         <v>44859</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35955,7 +35955,7 @@
         <v>45215.43879629629</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -36012,7 +36012,7 @@
         <v>46003.63954861111</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -36069,7 +36069,7 @@
         <v>46048.70013888889</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -36126,7 +36126,7 @@
         <v>46006.33462962963</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -36183,7 +36183,7 @@
         <v>44699</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -36240,7 +36240,7 @@
         <v>45761</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -36302,7 +36302,7 @@
         <v>45761.59523148148</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -36364,7 +36364,7 @@
         <v>45090.62493055555</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -36421,7 +36421,7 @@
         <v>45775.63119212963</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -36478,7 +36478,7 @@
         <v>46008.33967592593</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -36535,7 +36535,7 @@
         <v>45153</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -36592,7 +36592,7 @@
         <v>46008.34541666666</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -36649,7 +36649,7 @@
         <v>45757.34350694445</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -36706,7 +36706,7 @@
         <v>46049.57591435185</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -36768,7 +36768,7 @@
         <v>46007.66275462963</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36825,7 +36825,7 @@
         <v>46008.35011574074</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36882,7 +36882,7 @@
         <v>46008.72493055555</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36939,7 +36939,7 @@
         <v>45743.55756944444</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36996,7 +36996,7 @@
         <v>45531.38372685185</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -37053,7 +37053,7 @@
         <v>45404.67387731482</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -37110,7 +37110,7 @@
         <v>45198.61314814815</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -37167,7 +37167,7 @@
         <v>46009.46129629629</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -37224,7 +37224,7 @@
         <v>45741.4050462963</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -37281,7 +37281,7 @@
         <v>45741</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -37338,7 +37338,7 @@
         <v>45807</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -37395,7 +37395,7 @@
         <v>46052.50533564815</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -37452,7 +37452,7 @@
         <v>45807</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -37509,7 +37509,7 @@
         <v>45807</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -37566,7 +37566,7 @@
         <v>46052.33809027778</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -37623,7 +37623,7 @@
         <v>45188.51439814815</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -37680,7 +37680,7 @@
         <v>45188</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -37737,7 +37737,7 @@
         <v>45237.60775462963</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37799,7 +37799,7 @@
         <v>44368</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37856,7 +37856,7 @@
         <v>45807</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37913,7 +37913,7 @@
         <v>46051.63380787037</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37970,7 +37970,7 @@
         <v>46009.45792824074</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -38027,7 +38027,7 @@
         <v>46009.60133101852</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -38084,7 +38084,7 @@
         <v>46056.66945601852</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -38141,7 +38141,7 @@
         <v>46056.4644675926</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -38198,7 +38198,7 @@
         <v>46056.6352662037</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -38255,7 +38255,7 @@
         <v>46014.54496527778</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -38312,7 +38312,7 @@
         <v>46013.42269675926</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -38374,7 +38374,7 @@
         <v>45222</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -38431,7 +38431,7 @@
         <v>46056.49622685185</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -38488,7 +38488,7 @@
         <v>46055.36231481482</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -38550,7 +38550,7 @@
         <v>46014.539375</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -38607,7 +38607,7 @@
         <v>44781.5350925926</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -38664,7 +38664,7 @@
         <v>46013.36556712963</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -38726,7 +38726,7 @@
         <v>45954.65564814815</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38783,7 +38783,7 @@
         <v>46013.36268518519</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38845,7 +38845,7 @@
         <v>46056.60297453704</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38902,7 +38902,7 @@
         <v>45203</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38959,7 +38959,7 @@
         <v>46057.47490740741</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -39016,7 +39016,7 @@
         <v>46013.96362268519</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -39073,7 +39073,7 @@
         <v>46057.58777777778</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -39130,7 +39130,7 @@
         <v>45764.35269675926</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -39187,7 +39187,7 @@
         <v>45756.35998842592</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -39249,7 +39249,7 @@
         <v>45722.47743055555</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -39306,7 +39306,7 @@
         <v>46057.35288194445</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -39363,7 +39363,7 @@
         <v>45232.63217592592</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -39420,7 +39420,7 @@
         <v>46057.56855324074</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -39477,7 +39477,7 @@
         <v>46057.53868055555</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -39534,7 +39534,7 @@
         <v>45190.51887731482</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -39591,7 +39591,7 @@
         <v>46043</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -39648,7 +39648,7 @@
         <v>45758.62951388889</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -39705,7 +39705,7 @@
         <v>45756.36844907407</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -39767,7 +39767,7 @@
         <v>45756.37520833333</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -39829,7 +39829,7 @@
         <v>46041</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39886,7 +39886,7 @@
         <v>45247</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39943,7 +39943,7 @@
         <v>45245.64877314815</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -40000,7 +40000,7 @@
         <v>45272</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -40057,7 +40057,7 @@
         <v>44838</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -40114,7 +40114,7 @@
         <v>44755.59188657408</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -40171,7 +40171,7 @@
         <v>46020</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -40228,7 +40228,7 @@
         <v>46059.42018518518</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -40285,7 +40285,7 @@
         <v>46063.42481481482</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -40342,7 +40342,7 @@
         <v>44804.61636574074</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -40399,7 +40399,7 @@
         <v>45320</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -40476,7 +40476,7 @@
         <v>46063.52565972223</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -40538,7 +40538,7 @@
         <v>46063.65672453704</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -40595,7 +40595,7 @@
         <v>45162</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -40652,7 +40652,7 @@
         <v>46064.6643287037</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -40709,7 +40709,7 @@
         <v>46043</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -40766,7 +40766,7 @@
         <v>46044.741875</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -40823,7 +40823,7 @@
         <v>46024.62364583334</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40880,7 +40880,7 @@
         <v>44438</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40937,7 +40937,7 @@
         <v>46048</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40994,7 +40994,7 @@
         <v>46065.4490162037</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -41051,7 +41051,7 @@
         <v>45477.75744212963</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -41108,7 +41108,7 @@
         <v>46065.61790509259</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -41165,7 +41165,7 @@
         <v>44859.52145833334</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -41222,7 +41222,7 @@
         <v>46066.55876157407</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -41284,7 +41284,7 @@
         <v>45264</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -41346,7 +41346,7 @@
         <v>46048</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -41403,7 +41403,7 @@
         <v>46069</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -41460,7 +41460,7 @@
         <v>45628.41274305555</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -41517,7 +41517,7 @@
         <v>46031</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -41574,7 +41574,7 @@
         <v>46027</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -41631,7 +41631,7 @@
         <v>45999.66488425926</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -41688,7 +41688,7 @@
         <v>46069</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -41745,7 +41745,7 @@
         <v>46071.42309027778</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -41802,7 +41802,7 @@
         <v>46071.44172453704</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41859,7 +41859,7 @@
         <v>46030</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41916,7 +41916,7 @@
         <v>46062</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41973,7 +41973,7 @@
         <v>46029</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -42035,7 +42035,7 @@
         <v>46059</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -42092,7 +42092,7 @@
         <v>46030.46954861111</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -42149,7 +42149,7 @@
         <v>45259</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -42206,7 +42206,7 @@
         <v>46072.5968287037</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -42263,7 +42263,7 @@
         <v>46030.66743055556</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -42320,7 +42320,7 @@
         <v>45226.49950231481</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -42377,7 +42377,7 @@
         <v>44313.54942129629</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -42434,7 +42434,7 @@
         <v>46072.48162037037</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -42491,7 +42491,7 @@
         <v>46072.50745370371</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -42548,7 +42548,7 @@
         <v>45219</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -42605,7 +42605,7 @@
         <v>46050</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -42662,7 +42662,7 @@
         <v>44900.65716435185</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -42719,7 +42719,7 @@
         <v>45520.48304398148</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -42776,7 +42776,7 @@
         <v>45567.3515162037</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42833,7 +42833,7 @@
         <v>45167</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42890,7 +42890,7 @@
         <v>45229</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42947,7 +42947,7 @@
         <v>45691.36403935185</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -43004,7 +43004,7 @@
         <v>45618</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -43061,7 +43061,7 @@
         <v>46051</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -43118,7 +43118,7 @@
         <v>46065</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -43175,7 +43175,7 @@
         <v>46057</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -43232,7 +43232,7 @@
         <v>46036</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -43289,7 +43289,7 @@
         <v>45008.64575231481</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -43346,7 +43346,7 @@
         <v>44887.43714120371</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -43408,7 +43408,7 @@
         <v>45188</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -43465,7 +43465,7 @@
         <v>45376.61019675926</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -43522,7 +43522,7 @@
         <v>45576.43782407408</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -43579,7 +43579,7 @@
         <v>46035.4731712963</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -43636,7 +43636,7 @@
         <v>46052.47197916666</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -43693,7 +43693,7 @@
         <v>46078.43366898148</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -43750,7 +43750,7 @@
         <v>45036.46804398148</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43807,7 +43807,7 @@
         <v>46027</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43864,7 +43864,7 @@
         <v>46038</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43921,7 +43921,7 @@
         <v>44953</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43978,7 +43978,7 @@
         <v>46070</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -44035,7 +44035,7 @@
         <v>46051</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -44092,7 +44092,7 @@
         <v>46076</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -44149,7 +44149,7 @@
         <v>46029</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -44211,7 +44211,7 @@
         <v>46037.42600694444</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -44268,7 +44268,7 @@
         <v>45551.44503472222</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -44325,7 +44325,7 @@
         <v>44347</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -44382,7 +44382,7 @@
         <v>46080.38643518519</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -44439,7 +44439,7 @@
         <v>46038.39023148148</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -44496,7 +44496,7 @@
         <v>46071</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -44553,7 +44553,7 @@
         <v>46037.61490740741</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -44610,7 +44610,7 @@
         <v>44909.52385416667</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -44667,7 +44667,7 @@
         <v>45590.60216435185</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -44724,7 +44724,7 @@
         <v>45622.65269675926</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44781,7 +44781,7 @@
         <v>44953</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44838,7 +44838,7 @@
         <v>44953.44965277778</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44895,7 +44895,7 @@
         <v>44957</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44952,7 +44952,7 @@
         <v>44957</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -45014,7 +45014,7 @@
         <v>45715.59936342593</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -45071,7 +45071,7 @@
         <v>45372.58969907407</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -45133,7 +45133,7 @@
         <v>45098</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -45190,7 +45190,7 @@
         <v>45694.59288194445</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -45247,7 +45247,7 @@
         <v>45637.34074074074</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -45309,7 +45309,7 @@
         <v>45572.38476851852</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -45366,7 +45366,7 @@
         <v>44900.3521412037</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -45423,7 +45423,7 @@
         <v>44725.50280092593</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -45485,7 +45485,7 @@
         <v>44515</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -45542,7 +45542,7 @@
         <v>45252.48592592592</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -45599,7 +45599,7 @@
         <v>44630.62788194444</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -45656,7 +45656,7 @@
         <v>45337.54135416666</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -45713,7 +45713,7 @@
         <v>45194.59378472222</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45770,7 +45770,7 @@
         <v>45147.3934837963</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45827,7 +45827,7 @@
         <v>45453.43695601852</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45884,7 +45884,7 @@
         <v>45624.65785879629</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45941,7 +45941,7 @@
         <v>45299</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45998,7 +45998,7 @@
         <v>44865</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -46055,7 +46055,7 @@
         <v>45401.53798611111</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -46112,7 +46112,7 @@
         <v>44838.46721064814</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -46169,7 +46169,7 @@
         <v>45553.47538194444</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -46226,7 +46226,7 @@
         <v>45001</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -46288,7 +46288,7 @@
         <v>45642.55645833333</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -46345,7 +46345,7 @@
         <v>45615.48465277778</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -46402,7 +46402,7 @@
         <v>45544</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -46459,7 +46459,7 @@
         <v>45761.59221064814</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -46521,7 +46521,7 @@
         <v>45584.42887731481</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -46578,7 +46578,7 @@
         <v>44644.70184027778</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -46635,7 +46635,7 @@
         <v>45196</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -46692,7 +46692,7 @@
         <v>44937</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -46749,7 +46749,7 @@
         <v>45775.63459490741</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46806,7 +46806,7 @@
         <v>45769.42203703704</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46868,7 +46868,7 @@
         <v>45771.45686342593</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46925,7 +46925,7 @@
         <v>45351.46583333334</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46982,7 +46982,7 @@
         <v>45363.40368055556</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -47039,7 +47039,7 @@
         <v>45448.38677083333</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -47096,7 +47096,7 @@
         <v>45588.59290509259</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -47153,7 +47153,7 @@
         <v>45279.46009259259</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -47210,7 +47210,7 @@
         <v>45440.59936342593</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -47267,7 +47267,7 @@
         <v>45540.85054398148</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -47324,7 +47324,7 @@
         <v>45519.67503472222</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -47381,7 +47381,7 @@
         <v>45072.34796296297</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -47438,7 +47438,7 @@
         <v>45615.49371527778</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -47495,7 +47495,7 @@
         <v>45439</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -47557,7 +47557,7 @@
         <v>45439.51907407407</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -47619,7 +47619,7 @@
         <v>45350</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -47676,7 +47676,7 @@
         <v>45568.64337962963</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -47733,7 +47733,7 @@
         <v>45259.50996527778</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -47790,7 +47790,7 @@
         <v>45296</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -47847,7 +47847,7 @@
         <v>45260.52684027778</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -47904,7 +47904,7 @@
         <v>45471</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -47961,7 +47961,7 @@
         <v>45497</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -48018,7 +48018,7 @@
         <v>45632.46821759259</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -48075,7 +48075,7 @@
         <v>45756.37201388889</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -48137,7 +48137,7 @@
         <v>45749.58428240741</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -48194,7 +48194,7 @@
         <v>45743</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -48251,7 +48251,7 @@
         <v>45747.48371527778</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -48308,7 +48308,7 @@
         <v>45194</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -48365,7 +48365,7 @@
         <v>45695.42762731481</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -48422,7 +48422,7 @@
         <v>45433.5741087963</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -48479,7 +48479,7 @@
         <v>45772.49640046297</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -48536,7 +48536,7 @@
         <v>45748.39222222222</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -48593,7 +48593,7 @@
         <v>45533</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -48650,7 +48650,7 @@
         <v>45784.44481481481</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -48707,7 +48707,7 @@
         <v>45784.45273148148</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -48764,7 +48764,7 @@
         <v>45784.45060185185</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -48821,7 +48821,7 @@
         <v>45408.46980324074</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -48878,7 +48878,7 @@
         <v>45786.54940972223</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -48940,7 +48940,7 @@
         <v>45725</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -48997,7 +48997,7 @@
         <v>45786.45721064815</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -49059,7 +49059,7 @@
         <v>45625</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -49116,7 +49116,7 @@
         <v>45625</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -49173,7 +49173,7 @@
         <v>45232.53052083333</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -49230,7 +49230,7 @@
         <v>45638</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -49287,7 +49287,7 @@
         <v>45785</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -49344,7 +49344,7 @@
         <v>45791.70299768518</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -49401,7 +49401,7 @@
         <v>45625</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -49458,7 +49458,7 @@
         <v>44720</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -49515,7 +49515,7 @@
         <v>44796.60479166666</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -49572,7 +49572,7 @@
         <v>45715.45341435185</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -49629,7 +49629,7 @@
         <v>45796.63137731481</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -49686,7 +49686,7 @@
         <v>45272</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -49743,7 +49743,7 @@
         <v>45049</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -49800,7 +49800,7 @@
         <v>45791</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -49857,7 +49857,7 @@
         <v>45797.45581018519</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -49914,7 +49914,7 @@
         <v>45798.6003587963</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -49976,7 +49976,7 @@
         <v>45769</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -50033,7 +50033,7 @@
         <v>45798.62894675926</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -50095,7 +50095,7 @@
         <v>45797.40260416667</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -50152,7 +50152,7 @@
         <v>45798.62243055556</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -50214,7 +50214,7 @@
         <v>45797.37607638889</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -50271,7 +50271,7 @@
         <v>44473.39252314815</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -50328,7 +50328,7 @@
         <v>45799.57666666667</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -50385,7 +50385,7 @@
         <v>45799.56524305556</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
